--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>693000</v>
+      </c>
+      <c r="F8" s="3">
         <v>768000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>791000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>390000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>429000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>456000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>492000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>442000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>464000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>435000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>421000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>378000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>352000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>545000</v>
+      </c>
+      <c r="F9" s="3">
         <v>614000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>672000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>307000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>311000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>335000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>348000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>327000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>339000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>329000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>326000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>315000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>298000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F10" s="3">
         <v>154000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>119000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>83000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>118000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>121000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>144000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>115000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>125000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>106000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>95000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>63000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>54000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,43 +1002,49 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>30000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>28000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1000</v>
       </c>
       <c r="O14" s="3">
         <v>-1000</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,10 +1070,10 @@
         <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H15" s="3">
         <v>7000</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>650000</v>
+      </c>
+      <c r="F17" s="3">
         <v>720000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>804000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>376000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>403000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>457000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>428000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>404000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>412000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>389000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>381000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>351000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F18" s="3">
         <v>48000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>53000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>35000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>60000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>23000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>32000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>86000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>38000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F21" s="3">
         <v>125000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>79000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>68000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>134000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>116000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>120000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>61000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>92000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>78000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>164000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>80000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>39000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F22" s="3">
         <v>51000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>54000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>49000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>49000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>47000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>48000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>49000</v>
       </c>
       <c r="K22" s="3">
         <v>48000</v>
       </c>
       <c r="L22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="N22" s="3">
         <v>45000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>135000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>91000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>44000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>47000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-59000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-28000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>35000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-36000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-12000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-17000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-56000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-51000</v>
       </c>
       <c r="P23" s="3">
         <v>-56000</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-56000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1162000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-150000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-55000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-41000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-25000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>99000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-61000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-34000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>36000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-44000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-31000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-56000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>97000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>6000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>1000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1166000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-216000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>22000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>15000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>24000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-86000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-38000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-62000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-34000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>36000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-44000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-247000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>121000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-62000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-34000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>36000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-44000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-247000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>121000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>302000</v>
+      </c>
+      <c r="F41" s="3">
         <v>305000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>397000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1068000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1034000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1077000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1036000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1074000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1116000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1058000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>303000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>265000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>248000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2234,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>488000</v>
+      </c>
+      <c r="F43" s="3">
         <v>576000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>603000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>302000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>319000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>334000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>349000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>338000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>673000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>310000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>457000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>428000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>289000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1035000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1097000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>486000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>479000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>475000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>451000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>470000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>473000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>459000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>506000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>510000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>499000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F45" s="3">
         <v>137000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>165000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>715000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>712000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>718000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>769000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>741000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>713000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>697000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>56000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>42000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1702000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2073000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2053000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2262000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2571000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2544000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2604000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2605000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2623000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2639000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2524000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1322000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1245000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2738000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2505000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2715000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2621000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2562000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1841000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1823000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1861000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2016000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2885000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1928000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3424000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3422000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1969000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F49" s="3">
         <v>222000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>299000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>169000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>176000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>182000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>188000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>192000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>198000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>203000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>210000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>217000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>223000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>272000</v>
+      </c>
+      <c r="F52" s="3">
         <v>261000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>293000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>145000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>122000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>105000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>79000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>27000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>27000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>36000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>38000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>38000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>34000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5130000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5268000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5157000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5416000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4726000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4642000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4714000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4733000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4858000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4864000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4691000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4994000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4922000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4964000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2878,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>342000</v>
+      </c>
+      <c r="F57" s="3">
         <v>246000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>297000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>150000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>133000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>155000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>131000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>146000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>165000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>155000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>201000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>198000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>136000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F58" s="3">
         <v>55000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>58000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>152000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>22000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>22000</v>
       </c>
       <c r="I58" s="3">
         <v>22000</v>
@@ -2693,13 +2960,13 @@
         <v>22000</v>
       </c>
       <c r="L58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N58" s="3">
         <v>11000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>166000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>166000</v>
       </c>
       <c r="O58" s="3">
         <v>166000</v>
@@ -2707,184 +2974,214 @@
       <c r="P58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>166000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>322000</v>
+      </c>
+      <c r="F59" s="3">
         <v>328000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>363000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>140000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>145000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>169000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>182000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>152000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>166000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>133000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>183000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>146000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>262000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>702000</v>
+      </c>
+      <c r="F60" s="3">
         <v>629000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>718000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>442000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>346000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>335000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>320000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>353000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>299000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>550000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>510000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>564000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2954000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2988000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3067000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3136000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3223000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3139000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3143000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3147000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3124000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3125000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3129000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2886000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2887000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2888000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>662000</v>
+      </c>
+      <c r="F62" s="3">
         <v>637000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>633000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>381000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>341000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>346000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>354000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>381000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>371000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>357000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>383000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>381000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>359000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4577000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4520000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4490000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4637000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4150000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3959000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4007000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4008000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4029000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4035000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3943000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3981000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3931000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3955000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-471000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-486000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-466000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-397000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-357000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-346000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-347000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-377000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-327000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-321000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-69000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-66000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-32000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>553000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>748000</v>
+      </c>
+      <c r="F76" s="3">
         <v>667000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>779000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>576000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>683000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>707000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>725000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>829000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>829000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>748000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1013000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>991000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1009000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-62000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-34000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>36000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-44000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-247000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>121000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F83" s="3">
         <v>74000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>84000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>47000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>48000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>49000</v>
       </c>
       <c r="J83" s="3">
         <v>48000</v>
       </c>
       <c r="K83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M83" s="3">
         <v>46000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>62000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>61000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>61000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F89" s="3">
         <v>148000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>79000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>39000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>27000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>112000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>35000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>64000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>77000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>60000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>87000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-56000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-34000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-27000</v>
       </c>
       <c r="J91" s="3">
         <v>-28000</v>
       </c>
       <c r="K91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="N91" s="3">
         <v>33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-44000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-52000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-129000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-942000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-50000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-53000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-52000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-41000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-28000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>643000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-24000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-31000</v>
       </c>
       <c r="P94" s="3">
         <v>-32000</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-32000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7000</v>
+        <v>-10000</v>
       </c>
       <c r="E96" s="3">
-        <v>-7000</v>
+        <v>-6000</v>
       </c>
       <c r="F96" s="3">
         <v>-7000</v>
       </c>
       <c r="G96" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="H96" s="3">
-        <v>-5000</v>
+        <v>-7000</v>
       </c>
       <c r="I96" s="3">
         <v>-6000</v>
       </c>
       <c r="J96" s="3">
-        <v>-6000</v>
+        <v>-5000</v>
       </c>
       <c r="K96" s="3">
         <v>-6000</v>
       </c>
       <c r="L96" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="M96" s="3">
         <v>-6000</v>
       </c>
       <c r="N96" s="3">
-        <v>-6000</v>
+        <v>-5000</v>
       </c>
       <c r="O96" s="3">
         <v>-6000</v>
       </c>
       <c r="P96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-467000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>50000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>51000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,83 +4874,95 @@
         <v>-9000</v>
       </c>
       <c r="E101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1000</v>
       </c>
       <c r="P101" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-90000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-40000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-37000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-40000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>755000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>38000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>46000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E8" s="3">
         <v>722000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>693000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>768000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>791000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>390000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>429000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>456000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>492000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>442000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>464000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>435000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>421000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>378000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>352000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E9" s="3">
         <v>547000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>545000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>614000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>672000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>307000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>311000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>335000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>348000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>327000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>339000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>329000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>326000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>315000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>298000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E10" s="3">
         <v>175000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>148000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>154000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>119000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>83000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>121000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>144000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>125000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>95000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>63000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,75 +1025,81 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>30000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>28000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7000</v>
       </c>
       <c r="I15" s="3">
         <v>7000</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E17" s="3">
         <v>643000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>650000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>720000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>804000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>376000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>403000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>457000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>428000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>404000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>412000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>389000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>381000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>351000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E18" s="3">
         <v>79000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>13000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3000</v>
       </c>
       <c r="F20" s="3">
         <v>3000</v>
       </c>
       <c r="G20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>86000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E21" s="3">
         <v>163000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>121000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>134000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>116000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>92000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>164000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>80000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E22" s="3">
         <v>45000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>49000</v>
       </c>
       <c r="I22" s="3">
         <v>49000</v>
       </c>
       <c r="J22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K22" s="3">
         <v>47000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>135000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>91000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>47000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-59000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-51000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1162000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-150000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>40000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-55000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>99000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>32000</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-61000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>97000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,32 +1753,35 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>6000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1728,25 +1789,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1166000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-216000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>22000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>15000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>24000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-3000</v>
       </c>
       <c r="F32" s="3">
         <v>-3000</v>
       </c>
       <c r="G32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-86000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>32000</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-13000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-62000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44000</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-247000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>121000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>32000</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-13000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-62000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44000</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-247000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>121000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E41" s="3">
         <v>420000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>302000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>305000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>397000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1068000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1034000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1077000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1036000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1074000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1116000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1058000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>303000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>248000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E43" s="3">
         <v>560000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>488000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>576000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>603000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>302000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>319000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>334000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>349000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>338000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>673000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>310000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>457000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>428000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>289000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1054000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1131000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1035000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1097000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>486000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>479000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>475000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>451000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>470000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>473000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>459000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>506000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>510000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>499000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E45" s="3">
         <v>124000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>152000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>137000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>165000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>715000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>712000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>718000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>769000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>741000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>713000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>697000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>56000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1702000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2158000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2073000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2053000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2262000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2571000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2544000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2604000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2605000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2623000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2639000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2524000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1322000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1245000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2738000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2505000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2715000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2621000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2562000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1841000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1823000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1861000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2016000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2885000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1928000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3424000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3422000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1969000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E49" s="3">
         <v>202000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>208000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>222000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>299000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>169000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>176000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>182000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>188000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>192000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>198000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>203000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>210000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>217000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>223000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E52" s="3">
         <v>265000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>272000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>261000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>293000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>145000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>122000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>105000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>27000</v>
       </c>
       <c r="M52" s="3">
         <v>27000</v>
       </c>
       <c r="N52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="O52" s="3">
         <v>36000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>38000</v>
       </c>
       <c r="P52" s="3">
         <v>38000</v>
       </c>
       <c r="Q52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="R52" s="3">
         <v>34000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5482000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5130000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5268000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5157000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5416000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4726000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4642000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4714000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4733000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4858000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4864000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4691000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4994000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4922000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4964000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,78 +3010,82 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E57" s="3">
         <v>280000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>342000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>246000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>297000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>150000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>133000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>155000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>131000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>165000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>155000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>201000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>198000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>136000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E58" s="3">
         <v>242000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>55000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>58000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>152000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>22000</v>
       </c>
       <c r="J58" s="3">
         <v>22000</v>
@@ -2966,10 +3100,10 @@
         <v>22000</v>
       </c>
       <c r="N58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O58" s="3">
         <v>11000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>166000</v>
       </c>
       <c r="P58" s="3">
         <v>166000</v>
@@ -2980,208 +3114,223 @@
       <c r="R58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E59" s="3">
         <v>389000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>322000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>328000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>363000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>140000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>145000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>169000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>182000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>152000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>166000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>183000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>146000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>262000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E60" s="3">
         <v>911000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>702000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>629000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>718000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>442000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>346000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>335000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>320000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>353000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>299000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>550000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>510000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>564000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2954000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2988000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3067000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3136000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3223000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3139000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3143000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3147000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3124000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3125000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3129000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2886000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2887000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2888000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E62" s="3">
         <v>586000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>662000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>637000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>633000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>381000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>341000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>346000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>354000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>381000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>371000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>357000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>383000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>381000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>359000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4880000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4577000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4520000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4490000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4637000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4150000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3959000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4007000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4008000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4029000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4035000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3943000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3981000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3931000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3955000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-485000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-471000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-493000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-486000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-466000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-397000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-357000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-346000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-347000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-377000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-327000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-321000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E76" s="3">
         <v>553000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>748000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>667000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>779000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>576000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>683000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>707000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>725000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>829000</v>
       </c>
       <c r="M76" s="3">
         <v>829000</v>
       </c>
       <c r="N76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="O76" s="3">
         <v>748000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1013000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>991000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1009000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>32000</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-13000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-62000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44000</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-247000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>121000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E83" s="3">
         <v>71000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>75000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>74000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>48000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>62000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>61000</v>
       </c>
       <c r="Q83" s="3">
         <v>61000</v>
       </c>
       <c r="R83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="S83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>175000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>148000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>77000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-28000</v>
       </c>
       <c r="M91" s="3">
         <v>-28000</v>
       </c>
       <c r="N91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="O91" s="3">
         <v>33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-129000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-942000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-53000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>643000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,10 +4858,10 @@
         <v>-10000</v>
       </c>
       <c r="E96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7000</v>
       </c>
       <c r="G96" s="3">
         <v>-7000</v>
@@ -4636,13 +4870,13 @@
         <v>-7000</v>
       </c>
       <c r="I96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-6000</v>
       </c>
       <c r="L96" s="3">
         <v>-6000</v>
@@ -4651,10 +4885,10 @@
         <v>-6000</v>
       </c>
       <c r="N96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-6000</v>
       </c>
       <c r="P96" s="3">
         <v>-6000</v>
@@ -4663,10 +4897,13 @@
         <v>-6000</v>
       </c>
       <c r="R96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E100" s="3">
         <v>193000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-121000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-467000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>50000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>51000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E102" s="3">
         <v>118000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-90000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>58000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>755000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E8" s="3">
         <v>578000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>722000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>693000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>768000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>791000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>390000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>429000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>456000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>492000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>442000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>464000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>435000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>421000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>378000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>352000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E9" s="3">
         <v>449000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>547000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>545000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>614000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>672000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>307000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>311000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>335000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>348000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>327000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>339000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>329000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>326000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>315000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>298000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E10" s="3">
         <v>129000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>175000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>148000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>154000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>119000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>83000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>118000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>121000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>144000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>115000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>125000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>106000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>95000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>63000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,81 +1045,87 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>28000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7000</v>
       </c>
       <c r="J15" s="3">
         <v>7000</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E17" s="3">
         <v>529000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>643000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>650000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>720000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>804000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>376000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>403000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>457000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>428000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>404000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>412000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>381000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>351000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>49000</v>
       </c>
       <c r="E18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F18" s="3">
         <v>79000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3000</v>
       </c>
       <c r="G20" s="3">
         <v>3000</v>
       </c>
       <c r="H20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>86000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E21" s="3">
         <v>125000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>163000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>121000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>125000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>79000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>134000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>116000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>120000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>61000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>78000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>164000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>80000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>47000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>49000</v>
       </c>
       <c r="J22" s="3">
         <v>49000</v>
       </c>
       <c r="K22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L22" s="3">
         <v>47000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>135000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>91000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>47000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-59000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-56000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-51000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-893000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-27000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1162000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-150000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>40000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-55000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-53000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>99000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-61000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-44000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-56000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>97000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,35 +1814,38 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>6000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1792,25 +1853,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1166000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-216000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>22000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>15000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>24000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3000</v>
       </c>
       <c r="G32" s="3">
         <v>-3000</v>
       </c>
       <c r="H32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-13000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-62000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-44000</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-247000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>121000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-13000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-62000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-44000</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-247000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>121000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,52 +2323,55 @@
         <v>722000</v>
       </c>
       <c r="E41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="F41" s="3">
         <v>420000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>302000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>305000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>397000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1068000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1034000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1077000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1036000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1074000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1116000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1058000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>303000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>265000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>248000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E43" s="3">
         <v>449000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>560000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>488000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>576000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>603000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>302000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>319000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>334000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>349000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>338000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>673000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>310000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>457000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>428000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>289000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1174000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1054000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1131000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1035000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1097000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>486000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>479000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>475000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>451000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>470000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>473000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>459000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>506000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>510000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>499000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E45" s="3">
         <v>162000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>124000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>152000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>137000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>165000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>715000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>712000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>718000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>769000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>741000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>713000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>697000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>56000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1702000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2586000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2507000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2158000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2073000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2053000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2262000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2571000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2544000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2604000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2605000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2623000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2639000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2524000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1322000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1245000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2738000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2513000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2506000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2505000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2715000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2621000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2562000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1841000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1823000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1861000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2016000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2885000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1928000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3424000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3422000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1969000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E49" s="3">
         <v>195000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>202000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>208000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>222000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>299000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>169000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>176000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>182000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>188000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>192000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>198000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>203000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>210000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>217000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>223000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E52" s="3">
         <v>274000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>265000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>272000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>261000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>293000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>145000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>122000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>27000</v>
       </c>
       <c r="N52" s="3">
         <v>27000</v>
       </c>
       <c r="O52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="P52" s="3">
         <v>36000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>38000</v>
       </c>
       <c r="Q52" s="3">
         <v>38000</v>
       </c>
       <c r="R52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="S52" s="3">
         <v>34000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5482000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5130000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5268000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5157000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5416000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4726000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4642000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4714000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4733000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4858000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4864000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4691000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4994000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4922000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4964000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,84 +3141,88 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E57" s="3">
         <v>322000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>280000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>342000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>246000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>297000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>150000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>133000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>155000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>131000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>165000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>155000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>201000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>198000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>136000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E58" s="3">
         <v>59000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>242000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>38000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>55000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>58000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>152000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>22000</v>
       </c>
       <c r="K58" s="3">
         <v>22000</v>
@@ -3103,10 +3237,10 @@
         <v>22000</v>
       </c>
       <c r="O58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="P58" s="3">
         <v>11000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>166000</v>
       </c>
       <c r="Q58" s="3">
         <v>166000</v>
@@ -3117,167 +3251,179 @@
       <c r="S58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E59" s="3">
         <v>346000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>389000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>322000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>328000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>363000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>140000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>145000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>169000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>182000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>152000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>166000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>133000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>183000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>146000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>262000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>764000</v>
+      </c>
+      <c r="E60" s="3">
         <v>727000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>911000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>702000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>629000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>718000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>442000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>346000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>335000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>320000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>353000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>299000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>550000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>510000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>564000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3424000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3427000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2954000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2988000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3067000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3136000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3223000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3139000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3143000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3147000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3124000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3125000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3129000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2886000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2887000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2888000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,52 +3431,55 @@
         <v>600000</v>
       </c>
       <c r="E62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="F62" s="3">
         <v>586000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>662000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>637000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>633000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>381000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>341000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>346000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>354000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>381000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>371000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>357000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>383000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>381000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>359000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4925000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4880000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4577000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4520000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4490000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4637000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4150000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3959000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4007000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4008000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4029000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4035000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3943000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3981000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3931000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3955000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-485000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-471000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-493000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-486000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-466000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-397000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-357000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-346000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-347000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-377000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-327000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-321000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-66000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E76" s="3">
         <v>602000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>553000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>748000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>667000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>779000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>576000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>683000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>707000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>725000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>829000</v>
       </c>
       <c r="N76" s="3">
         <v>829000</v>
       </c>
       <c r="O76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="P76" s="3">
         <v>748000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1013000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>991000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1009000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-13000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-62000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-44000</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-247000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>121000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>75000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>74000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>62000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>61000</v>
       </c>
       <c r="R83" s="3">
         <v>61000</v>
       </c>
       <c r="S83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="T83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E89" s="3">
         <v>100000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>175000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>148000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>39000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>112000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>64000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>77000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-28000</v>
       </c>
       <c r="N91" s="3">
         <v>-28000</v>
       </c>
       <c r="O91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="P91" s="3">
         <v>33000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-52000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-942000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>643000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,10 +5095,10 @@
         <v>-10000</v>
       </c>
       <c r="F96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-7000</v>
       </c>
       <c r="H96" s="3">
         <v>-7000</v>
@@ -4873,13 +5107,13 @@
         <v>-7000</v>
       </c>
       <c r="J96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-6000</v>
       </c>
       <c r="M96" s="3">
         <v>-6000</v>
@@ -4888,10 +5122,10 @@
         <v>-6000</v>
       </c>
       <c r="O96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-6000</v>
       </c>
       <c r="Q96" s="3">
         <v>-6000</v>
@@ -4900,10 +5134,13 @@
         <v>-6000</v>
       </c>
       <c r="S96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E100" s="3">
         <v>273000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>193000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-121000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-467000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>50000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>51000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,101 +5372,107 @@
         <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>320000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>118000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-90000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>755000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E8" s="3">
         <v>675000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>578000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>722000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>693000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>768000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>791000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>390000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>429000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>456000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>492000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>442000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>464000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>435000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>421000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>378000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>352000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E9" s="3">
         <v>536000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>449000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>547000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>545000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>614000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>672000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>307000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>311000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>335000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>348000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>327000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>339000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>329000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>326000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>315000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>298000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E10" s="3">
         <v>139000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>129000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>175000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>148000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>154000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>119000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>83000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>121000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>144000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>115000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>106000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>95000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>63000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,87 +1064,93 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>29000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>30000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>25000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>28000</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="3">
         <v>9000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7000</v>
       </c>
       <c r="K15" s="3">
         <v>7000</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E17" s="3">
         <v>626000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>529000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>643000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>650000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>720000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>804000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>376000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>403000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>457000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>428000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>404000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>412000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>381000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>351000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49000</v>
+        <v>92000</v>
       </c>
       <c r="E18" s="3">
         <v>49000</v>
       </c>
       <c r="F18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="G18" s="3">
         <v>79000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>60000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3000</v>
       </c>
       <c r="H20" s="3">
         <v>3000</v>
       </c>
       <c r="I20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>36000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>86000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>38000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E21" s="3">
         <v>133000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>163000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>121000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>79000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>116000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>120000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>61000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>78000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>164000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>80000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>51000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>49000</v>
       </c>
       <c r="K22" s="3">
         <v>49000</v>
       </c>
       <c r="L22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M22" s="3">
         <v>47000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>135000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>91000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E23" s="3">
         <v>9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>47000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-59000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-56000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-51000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-893000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-27000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1162000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-150000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E26" s="3">
         <v>902000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-55000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-41000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-53000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>99000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E27" s="3">
         <v>896000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32000</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-61000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-44000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-56000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>97000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1828,27 +1888,27 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>6000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1856,25 +1916,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1166000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>22000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>15000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>24000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3000</v>
       </c>
       <c r="H32" s="3">
         <v>-3000</v>
       </c>
       <c r="I32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-36000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-86000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-38000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E33" s="3">
         <v>896000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32000</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-62000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-44000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>121000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E35" s="3">
         <v>896000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32000</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-62000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-44000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>121000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>722000</v>
+        <v>619000</v>
       </c>
       <c r="E41" s="3">
         <v>722000</v>
       </c>
       <c r="F41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="G41" s="3">
         <v>420000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>302000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>305000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>397000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1068000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1034000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1077000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1036000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1074000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1116000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>303000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>265000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>248000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E43" s="3">
         <v>487000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>449000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>560000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>488000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>576000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>603000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>302000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>319000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>334000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>349000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>338000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>673000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>310000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>457000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>428000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>289000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1176000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1174000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1054000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1131000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1035000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1097000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>486000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>479000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>475000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>451000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>470000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>473000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>459000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>506000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>510000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>499000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E45" s="3">
         <v>201000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>162000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>124000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>152000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>137000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>165000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>715000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>712000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>718000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>769000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>741000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>713000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>697000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>56000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1702000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2529000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2586000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2507000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2158000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2073000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2053000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2262000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2571000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2544000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2604000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2605000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2623000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2639000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2524000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1322000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1245000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2738000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2643000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2513000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2506000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2505000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2715000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2621000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2562000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1841000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1800000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1823000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1861000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2016000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2885000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1928000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3424000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3422000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1969000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E49" s="3">
         <v>203000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>195000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>202000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>208000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>222000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>299000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>169000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>176000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>182000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>188000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>192000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>198000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>203000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>210000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>217000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>223000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1174000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>274000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>265000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>272000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>261000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>293000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>145000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>122000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>79000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>27000</v>
       </c>
       <c r="O52" s="3">
         <v>27000</v>
       </c>
       <c r="P52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>36000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>38000</v>
       </c>
       <c r="R52" s="3">
         <v>38000</v>
       </c>
       <c r="S52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="T52" s="3">
         <v>34000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6568000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6476000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5482000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5130000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5268000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5157000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5416000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4726000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4642000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4714000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4733000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4858000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4864000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4691000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4994000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4922000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4964000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,90 +3271,94 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E57" s="3">
         <v>306000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>322000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>280000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>342000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>246000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>297000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>150000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>133000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>155000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>165000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>155000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>201000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>198000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>136000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E58" s="3">
         <v>54000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>59000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>242000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>38000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>55000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>152000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>22000</v>
       </c>
       <c r="L58" s="3">
         <v>22000</v>
@@ -3240,10 +3373,10 @@
         <v>22000</v>
       </c>
       <c r="P58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>166000</v>
       </c>
       <c r="R58" s="3">
         <v>166000</v>
@@ -3254,232 +3387,247 @@
       <c r="T58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E59" s="3">
         <v>404000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>346000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>389000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>322000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>328000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>363000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>140000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>145000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>169000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>182000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>152000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>166000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>183000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>146000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>262000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>805000</v>
+      </c>
+      <c r="E60" s="3">
         <v>764000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>727000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>911000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>702000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>629000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>718000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>442000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>346000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>335000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>320000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>353000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>299000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>550000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>510000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>564000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3263000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3424000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3427000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2954000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2988000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3067000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3136000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3223000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3139000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3143000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3147000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3124000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3125000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3129000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2886000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2887000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2888000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600000</v>
+        <v>629000</v>
       </c>
       <c r="E62" s="3">
         <v>600000</v>
       </c>
       <c r="F62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G62" s="3">
         <v>586000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>662000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>637000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>633000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>381000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>341000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>346000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>354000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>381000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>371000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>357000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>383000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>381000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>359000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4870000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4925000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4880000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4577000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4520000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4490000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4637000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4150000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3959000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4007000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4008000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4029000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4035000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3943000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3981000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3931000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3955000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E72" s="3">
         <v>400000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-485000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-471000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-493000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-486000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-466000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-397000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-357000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-346000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-347000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-377000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-327000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-321000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-66000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1698000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1551000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>602000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>553000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>748000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>667000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>779000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>576000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>683000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>707000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>725000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>829000</v>
       </c>
       <c r="O76" s="3">
         <v>829000</v>
       </c>
       <c r="P76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>748000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1013000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>991000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1009000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E81" s="3">
         <v>896000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32000</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-62000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-44000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>121000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E83" s="3">
         <v>76000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>74000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>62000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>61000</v>
       </c>
       <c r="S83" s="3">
         <v>61000</v>
       </c>
       <c r="T83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="U83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E89" s="3">
         <v>84000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>148000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>79000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>112000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-28000</v>
       </c>
       <c r="O91" s="3">
         <v>-28000</v>
       </c>
       <c r="P91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-52000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-129000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-942000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-53000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>643000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-32000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5098,10 +5331,10 @@
         <v>-10000</v>
       </c>
       <c r="G96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-7000</v>
       </c>
       <c r="I96" s="3">
         <v>-7000</v>
@@ -5110,13 +5343,13 @@
         <v>-7000</v>
       </c>
       <c r="K96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-6000</v>
       </c>
       <c r="N96" s="3">
         <v>-6000</v>
@@ -5125,10 +5358,10 @@
         <v>-6000</v>
       </c>
       <c r="P96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-6000</v>
       </c>
       <c r="R96" s="3">
         <v>-6000</v>
@@ -5137,10 +5370,13 @@
         <v>-6000</v>
       </c>
       <c r="T96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-226000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>273000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>193000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-121000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-467000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>50000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>51000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
       </c>
       <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-101000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>320000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>118000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-90000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>58000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>755000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E8" s="3">
         <v>783000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>675000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>578000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>722000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>693000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>768000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>791000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>390000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>429000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>456000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>492000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>442000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>464000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>435000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>421000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>378000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>352000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E9" s="3">
         <v>605000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>536000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>449000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>547000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>545000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>614000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>672000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>307000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>311000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>335000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>348000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>327000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>339000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>329000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>326000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>315000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>298000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E10" s="3">
         <v>178000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>139000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>129000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>175000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>148000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>154000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>119000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>121000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>144000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>115000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>95000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>63000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>54000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,93 +1084,99 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7000</v>
       </c>
       <c r="F14" s="3">
         <v>7000</v>
       </c>
       <c r="G14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>30000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>28000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7000</v>
       </c>
       <c r="L15" s="3">
         <v>7000</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E17" s="3">
         <v>691000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>626000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>529000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>643000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>650000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>720000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>804000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>376000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>403000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>457000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>428000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>404000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>412000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>381000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>351000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E18" s="3">
         <v>92000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>49000</v>
       </c>
       <c r="F18" s="3">
         <v>49000</v>
       </c>
       <c r="G18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="H18" s="3">
         <v>79000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>60000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,294 +1389,309 @@
         <v>9000</v>
       </c>
       <c r="E20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3000</v>
       </c>
       <c r="I20" s="3">
         <v>3000</v>
       </c>
       <c r="J20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>36000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>86000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>38000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E21" s="3">
         <v>186000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>133000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>163000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>79000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>134000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>116000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>61000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>78000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>164000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>80000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>49000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>45000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>51000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>49000</v>
       </c>
       <c r="L22" s="3">
         <v>49000</v>
       </c>
       <c r="M22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N22" s="3">
         <v>47000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>135000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>91000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>52000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>47000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-59000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-56000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-51000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-893000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-27000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1162000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-150000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>57000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>902000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-55000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-41000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-53000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>99000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>45000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>896000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-44000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>97000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,13 +1935,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1891,27 +1952,27 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>6000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1919,25 +1980,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-216000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>22000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>15000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>24000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2133,123 @@
         <v>-9000</v>
       </c>
       <c r="E32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3000</v>
       </c>
       <c r="I32" s="3">
         <v>-3000</v>
       </c>
       <c r="J32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-36000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-86000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-38000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>45000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>896000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-13000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-62000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44000</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-247000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>121000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>45000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>896000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-13000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-62000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44000</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-247000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>121000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E41" s="3">
         <v>619000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>722000</v>
       </c>
       <c r="F41" s="3">
         <v>722000</v>
       </c>
       <c r="G41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="H41" s="3">
         <v>420000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>302000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>305000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>397000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1068000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1034000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1077000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1036000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1074000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1058000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>303000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>265000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>248000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E43" s="3">
         <v>544000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>487000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>449000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>560000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>488000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>576000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>603000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>302000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>319000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>334000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>349000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>338000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>673000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>310000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>457000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>428000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>289000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1137000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1176000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1174000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1054000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1131000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1035000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1097000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>486000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>479000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>475000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>451000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>470000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>473000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>459000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>506000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>510000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>499000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E45" s="3">
         <v>229000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>201000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>162000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>124000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>152000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>137000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>165000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>715000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>712000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>718000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>769000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>741000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>713000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>697000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>56000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1702000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2640000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2529000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2586000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2507000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2158000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2073000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2053000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2262000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2571000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2544000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2604000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2605000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2623000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2639000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2524000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1322000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1245000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2738000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2583000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2643000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2513000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2506000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2505000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2715000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2621000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2562000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1841000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1800000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1823000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1861000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2016000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2885000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1928000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3424000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3422000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1969000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2881,58 +2992,61 @@
         <v>201000</v>
       </c>
       <c r="E49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="F49" s="3">
         <v>203000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>195000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>202000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>208000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>222000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>299000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>169000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>176000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>182000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>188000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>192000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>198000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>203000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>210000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>217000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>223000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1195000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1174000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>274000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>265000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>272000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>261000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>293000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>145000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>122000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>79000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>27000</v>
       </c>
       <c r="P52" s="3">
         <v>27000</v>
       </c>
       <c r="Q52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="R52" s="3">
         <v>36000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>38000</v>
       </c>
       <c r="S52" s="3">
         <v>38000</v>
       </c>
       <c r="T52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="U52" s="3">
         <v>34000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6623000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6568000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6476000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5482000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5130000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5268000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5157000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5416000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4726000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4642000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4714000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4733000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4858000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4864000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4691000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4994000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4922000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4964000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,96 +3402,100 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E57" s="3">
         <v>356000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>306000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>322000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>280000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>342000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>246000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>297000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>150000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>133000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>155000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>131000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>146000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>165000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>155000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>201000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>198000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>136000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E58" s="3">
         <v>58000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>59000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>242000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>38000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>55000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>152000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>22000</v>
       </c>
       <c r="M58" s="3">
         <v>22000</v>
@@ -3376,10 +3510,10 @@
         <v>22000</v>
       </c>
       <c r="Q58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="R58" s="3">
         <v>11000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>166000</v>
       </c>
       <c r="S58" s="3">
         <v>166000</v>
@@ -3390,244 +3524,259 @@
       <c r="U58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E59" s="3">
         <v>391000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>404000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>346000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>389000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>322000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>328000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>363000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>145000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>169000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>182000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>152000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>166000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>133000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>183000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>146000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>262000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E60" s="3">
         <v>805000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>764000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>727000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>911000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>702000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>629000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>718000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>442000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>346000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>335000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>320000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>353000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>299000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>550000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>510000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>564000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3263000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3424000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3427000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2954000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2988000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3067000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3136000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3223000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3139000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3143000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3147000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3124000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3125000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3129000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2886000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2887000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2888000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E62" s="3">
         <v>629000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600000</v>
       </c>
       <c r="F62" s="3">
         <v>600000</v>
       </c>
       <c r="G62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="H62" s="3">
         <v>586000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>662000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>637000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>633000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>381000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>341000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>346000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>354000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>381000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>371000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>357000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>383000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>381000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>359000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4811000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4870000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4925000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4880000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4577000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4520000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4490000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4637000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4150000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3959000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4007000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4008000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4029000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4035000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3943000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3981000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3931000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3955000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E72" s="3">
         <v>434000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>400000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-485000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-471000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-493000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-486000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-466000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-397000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-357000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-346000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-347000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-377000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-327000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-321000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-66000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1698000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1551000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>602000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>553000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>748000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>667000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>779000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>576000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>683000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>707000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>725000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>829000</v>
       </c>
       <c r="P76" s="3">
         <v>829000</v>
       </c>
       <c r="Q76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="R76" s="3">
         <v>748000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1013000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>991000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1009000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>45000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>896000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-13000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-62000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44000</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-247000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>121000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E83" s="3">
         <v>85000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>74000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>62000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>61000</v>
       </c>
       <c r="T83" s="3">
         <v>61000</v>
       </c>
       <c r="U83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="V83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E89" s="3">
         <v>199000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>175000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>148000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>112000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>64000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>60000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-66000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-28000</v>
       </c>
       <c r="P91" s="3">
         <v>-28000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="R91" s="3">
         <v>33000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-52000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-78000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-129000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-942000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-53000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>643000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="E96" s="3">
         <v>-10000</v>
@@ -5334,10 +5568,10 @@
         <v>-10000</v>
       </c>
       <c r="H96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7000</v>
       </c>
       <c r="J96" s="3">
         <v>-7000</v>
@@ -5346,13 +5580,13 @@
         <v>-7000</v>
       </c>
       <c r="L96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-6000</v>
       </c>
       <c r="O96" s="3">
         <v>-6000</v>
@@ -5361,10 +5595,10 @@
         <v>-6000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-6000</v>
       </c>
       <c r="S96" s="3">
         <v>-6000</v>
@@ -5373,10 +5607,13 @@
         <v>-6000</v>
       </c>
       <c r="U96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-226000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>273000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>193000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-121000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-467000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>50000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>51000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1000</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
       </c>
       <c r="G101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-101000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>320000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>118000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-90000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-40000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>58000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>755000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>46000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E8" s="3">
         <v>891000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>783000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>675000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>578000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>722000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>693000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>768000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>791000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>390000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>429000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>456000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>492000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>442000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>464000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>435000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>421000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>378000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>352000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E9" s="3">
         <v>687000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>605000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>536000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>449000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>547000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>545000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>614000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>672000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>307000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>311000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>335000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>348000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>327000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>339000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>329000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>326000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>315000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>298000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E10" s="3">
         <v>204000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>178000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>139000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>129000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>175000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>148000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>154000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>121000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>144000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>115000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>106000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>95000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>63000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>53000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7000</v>
       </c>
       <c r="G14" s="3">
         <v>7000</v>
       </c>
       <c r="H14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>28000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,28 +1181,28 @@
         <v>9000</v>
       </c>
       <c r="E15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F15" s="3">
         <v>10000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7000</v>
       </c>
       <c r="M15" s="3">
         <v>7000</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800000</v>
+      </c>
+      <c r="E17" s="3">
         <v>818000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>691000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>626000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>529000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>643000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>650000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>720000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>804000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>376000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>361000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>403000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>457000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>428000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>404000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>412000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>389000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>381000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>351000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E18" s="3">
         <v>73000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>92000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>49000</v>
       </c>
       <c r="G18" s="3">
         <v>49000</v>
       </c>
       <c r="H18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I18" s="3">
         <v>79000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>60000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
         <v>9000</v>
       </c>
       <c r="F20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3000</v>
       </c>
       <c r="J20" s="3">
         <v>3000</v>
       </c>
       <c r="K20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>86000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>38000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E21" s="3">
         <v>166000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>186000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>133000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>125000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>163000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>121000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>134000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>116000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>120000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>61000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>92000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>78000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>164000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>80000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>39000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>49000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>45000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>49000</v>
       </c>
       <c r="M22" s="3">
         <v>49000</v>
       </c>
       <c r="N22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="O22" s="3">
         <v>47000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>135000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>91000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>44000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E23" s="3">
         <v>32000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>52000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-59000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-56000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-51000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-893000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-27000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1162000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-150000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E26" s="3">
         <v>26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>902000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-55000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-53000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>99000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>45000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>896000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32000</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-61000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-56000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>97000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,16 +1996,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1955,27 +2016,27 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>6000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1983,25 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1166000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-216000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>22000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>15000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>24000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
         <v>-9000</v>
       </c>
       <c r="F32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3000</v>
       </c>
       <c r="J32" s="3">
         <v>-3000</v>
       </c>
       <c r="K32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-86000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-38000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>896000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32000</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-247000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-41000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>121000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>896000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32000</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-247000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-41000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>121000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E41" s="3">
         <v>759000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>619000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>722000</v>
       </c>
       <c r="G41" s="3">
         <v>722000</v>
       </c>
       <c r="H41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="I41" s="3">
         <v>420000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>302000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>305000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>397000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1068000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1034000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1077000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1036000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1074000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1116000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1058000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>303000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>265000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>248000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E43" s="3">
         <v>658000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>544000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>487000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>449000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>560000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>488000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>576000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>603000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>302000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>319000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>334000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>349000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>338000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>673000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>310000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>457000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>428000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>289000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1052000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1137000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1176000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1174000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1054000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1131000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1035000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1097000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>486000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>479000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>475000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>451000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>470000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>473000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>459000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>506000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>510000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>499000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E45" s="3">
         <v>171000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>229000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>201000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>162000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>124000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>152000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>137000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>165000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>715000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>712000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>718000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>769000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>741000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>713000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>697000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>56000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>42000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1702000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2185000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2640000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2529000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2586000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2507000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2158000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2073000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2053000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2262000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2571000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2544000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2604000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2605000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2623000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2639000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2524000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1322000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1245000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2738000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2596000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2583000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2643000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2513000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2506000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2505000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2715000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2621000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2562000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1841000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1823000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1861000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2016000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2885000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1928000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3424000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3422000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1969000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201000</v>
+        <v>206000</v>
       </c>
       <c r="E49" s="3">
         <v>201000</v>
       </c>
       <c r="F49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="G49" s="3">
         <v>203000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>195000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>202000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>208000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>222000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>299000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>169000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>176000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>182000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>188000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>192000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>198000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>203000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>210000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>217000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>223000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1199000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1195000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1174000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>274000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>265000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>272000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>261000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>293000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>145000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>122000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>27000</v>
       </c>
       <c r="Q52" s="3">
         <v>27000</v>
       </c>
       <c r="R52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="S52" s="3">
         <v>36000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>38000</v>
       </c>
       <c r="T52" s="3">
         <v>38000</v>
       </c>
       <c r="U52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="V52" s="3">
         <v>34000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6182000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6623000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6568000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6476000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5482000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5130000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5268000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5157000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5416000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4726000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4642000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4714000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4733000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4858000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4864000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4691000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4994000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4922000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4964000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,102 +3533,106 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E57" s="3">
         <v>378000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>356000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>306000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>322000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>280000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>342000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>246000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>297000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>133000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>155000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>131000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>146000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>165000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>155000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>201000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>198000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>136000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E58" s="3">
         <v>514000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>58000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>54000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>59000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>242000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>38000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>55000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>152000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>22000</v>
       </c>
       <c r="N58" s="3">
         <v>22000</v>
@@ -3513,10 +3647,10 @@
         <v>22000</v>
       </c>
       <c r="R58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="S58" s="3">
         <v>11000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>166000</v>
       </c>
       <c r="T58" s="3">
         <v>166000</v>
@@ -3527,256 +3661,271 @@
       <c r="V58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E59" s="3">
         <v>362000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>391000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>404000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>346000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>389000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>322000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>328000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>363000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>145000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>182000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>152000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>166000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>133000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>183000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>146000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>262000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1254000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>805000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>764000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>727000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>911000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>702000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>629000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>718000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>442000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>346000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>335000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>320000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>353000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>299000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>550000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>510000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>564000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2804000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2901000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3263000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3424000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3427000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2954000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2988000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3067000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3136000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3223000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3139000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3143000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3147000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3124000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3125000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3129000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2886000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2887000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2888000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E62" s="3">
         <v>611000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>629000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600000</v>
       </c>
       <c r="G62" s="3">
         <v>600000</v>
       </c>
       <c r="H62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="I62" s="3">
         <v>586000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>662000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>637000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>633000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>381000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>341000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>346000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>354000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>381000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>371000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>357000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>383000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>381000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>359000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4260000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4811000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4870000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4925000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4880000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4577000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4520000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4490000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4637000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4150000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3959000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4007000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4008000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4029000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4035000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3943000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3981000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3931000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3955000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E72" s="3">
         <v>440000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>434000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>400000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-485000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-471000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-493000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-486000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-466000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-397000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-357000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-346000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-347000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-377000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-327000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-321000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-66000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1922000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1812000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1698000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1551000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>602000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>553000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>748000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>667000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>779000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>576000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>683000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>707000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>829000</v>
       </c>
       <c r="Q76" s="3">
         <v>829000</v>
       </c>
       <c r="R76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="S76" s="3">
         <v>748000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1013000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>991000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1009000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>896000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32000</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-247000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-41000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>121000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E83" s="3">
         <v>84000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>74000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>62000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>61000</v>
       </c>
       <c r="U83" s="3">
         <v>61000</v>
       </c>
       <c r="V83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="W83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E89" s="3">
         <v>135000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>199000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>175000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>148000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>112000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>64000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>77000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>60000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-66000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-28000</v>
       </c>
       <c r="Q91" s="3">
         <v>-28000</v>
       </c>
       <c r="R91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="S91" s="3">
         <v>33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-52000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-59000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-942000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-53000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-52000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>643000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,7 +5793,7 @@
         <v>-14000</v>
       </c>
       <c r="E96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="F96" s="3">
         <v>-10000</v>
@@ -5571,10 +5805,10 @@
         <v>-10000</v>
       </c>
       <c r="I96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-7000</v>
       </c>
       <c r="K96" s="3">
         <v>-7000</v>
@@ -5583,13 +5817,13 @@
         <v>-7000</v>
       </c>
       <c r="M96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-6000</v>
       </c>
       <c r="P96" s="3">
         <v>-6000</v>
@@ -5598,10 +5832,10 @@
         <v>-6000</v>
       </c>
       <c r="R96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-6000</v>
       </c>
       <c r="T96" s="3">
         <v>-6000</v>
@@ -5610,10 +5844,13 @@
         <v>-6000</v>
       </c>
       <c r="V96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-621000</v>
+      </c>
+      <c r="E100" s="3">
         <v>48000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-226000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>273000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>193000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-121000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-467000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>50000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>51000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1000</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
       </c>
       <c r="H101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E102" s="3">
         <v>119000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-101000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>320000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>118000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-90000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>755000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>38000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>46000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E8" s="3">
         <v>927000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>891000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>783000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>675000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>578000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>722000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>693000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>768000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>791000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>390000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>429000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>456000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>492000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>442000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>464000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>435000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>421000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>378000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>352000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E9" s="3">
         <v>700000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>687000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>605000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>536000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>449000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>547000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>545000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>614000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>672000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>307000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>311000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>335000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>348000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>327000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>339000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>329000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>326000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>315000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>298000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E10" s="3">
         <v>227000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>204000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>178000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>139000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>129000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>175000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>148000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>154000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>118000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>121000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>144000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>115000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>106000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>95000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>63000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>54000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>53000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7000</v>
       </c>
       <c r="H14" s="3">
         <v>7000</v>
       </c>
       <c r="I14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>28000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,28 +1207,28 @@
         <v>9000</v>
       </c>
       <c r="F15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7000</v>
       </c>
       <c r="N15" s="3">
         <v>7000</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E17" s="3">
         <v>800000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>818000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>691000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>626000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>529000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>643000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>650000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>720000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>804000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>376000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>403000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>457000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>428000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>404000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>412000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>389000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>381000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>351000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E18" s="3">
         <v>127000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>73000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>49000</v>
       </c>
       <c r="H18" s="3">
         <v>49000</v>
       </c>
       <c r="I18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="J18" s="3">
         <v>79000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>60000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>23000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9000</v>
       </c>
       <c r="F20" s="3">
         <v>9000</v>
       </c>
       <c r="G20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3000</v>
       </c>
       <c r="K20" s="3">
         <v>3000</v>
       </c>
       <c r="L20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>86000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>38000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E21" s="3">
         <v>204000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>166000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>186000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>133000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>163000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>121000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>79000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>134000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>116000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>120000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>61000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>92000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>78000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>164000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>80000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E22" s="3">
         <v>36000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>49000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>47000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>49000</v>
       </c>
       <c r="N22" s="3">
         <v>49000</v>
       </c>
       <c r="O22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="P22" s="3">
         <v>47000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>135000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>91000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>44000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E23" s="3">
         <v>97000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-59000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-56000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-51000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-893000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1162000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-150000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E26" s="3">
         <v>77000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>902000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-55000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-41000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-53000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>99000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E27" s="3">
         <v>73000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>896000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-61000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-44000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-56000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>97000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2071,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2019,27 +2080,27 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>6000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2047,25 +2108,28 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1166000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-216000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>22000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>15000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>24000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-9000</v>
       </c>
       <c r="F32" s="3">
         <v>-9000</v>
       </c>
       <c r="G32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3000</v>
       </c>
       <c r="K32" s="3">
         <v>-3000</v>
       </c>
       <c r="L32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-86000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-38000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E33" s="3">
         <v>73000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>896000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-44000</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-247000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-41000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>121000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E35" s="3">
         <v>73000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>896000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-44000</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-247000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-41000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>121000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E41" s="3">
         <v>303000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>759000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>619000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>722000</v>
       </c>
       <c r="H41" s="3">
         <v>722000</v>
       </c>
       <c r="I41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="J41" s="3">
         <v>420000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>302000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>305000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>397000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1068000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1034000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1077000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1074000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1116000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1058000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>303000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>265000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>248000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E43" s="3">
         <v>687000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>658000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>544000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>487000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>449000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>560000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>488000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>576000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>603000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>302000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>319000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>334000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>349000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>338000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>673000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>310000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>457000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>428000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>289000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1020000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1052000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1137000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1176000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1174000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1054000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1131000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1035000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1097000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>486000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>479000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>475000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>451000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>470000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>473000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>459000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>506000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>510000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>499000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E45" s="3">
         <v>175000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>171000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>229000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>201000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>162000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>124000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>152000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>165000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>715000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>712000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>718000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>769000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>741000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>713000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>697000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>56000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>42000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1702000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2102000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2185000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2640000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2529000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2586000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2507000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2158000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2073000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2053000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2262000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2571000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2544000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2604000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2605000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2623000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2639000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2524000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1322000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1245000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2738000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2550000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2596000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2583000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2643000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2513000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2506000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2505000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2715000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2621000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2562000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1841000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1823000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2016000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2885000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1928000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3424000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3422000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1969000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E49" s="3">
         <v>206000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>201000</v>
       </c>
       <c r="F49" s="3">
         <v>201000</v>
       </c>
       <c r="G49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="H49" s="3">
         <v>203000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>195000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>202000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>208000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>222000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>299000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>169000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>176000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>182000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>188000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>192000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>198000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>203000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>210000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>217000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>223000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1195000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1199000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1195000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1174000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>274000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>265000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>272000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>261000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>293000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>145000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>122000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>105000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>79000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>27000</v>
       </c>
       <c r="R52" s="3">
         <v>27000</v>
       </c>
       <c r="S52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="T52" s="3">
         <v>36000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>38000</v>
       </c>
       <c r="U52" s="3">
         <v>38000</v>
       </c>
       <c r="V52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="W52" s="3">
         <v>34000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6043000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6182000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6623000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6568000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6476000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5482000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5130000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5268000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5157000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5416000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4726000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4642000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4714000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4733000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4858000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4864000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4691000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4994000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4922000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4964000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,108 +3664,112 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E57" s="3">
         <v>375000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>378000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>356000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>306000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>322000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>280000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>342000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>246000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>297000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>150000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>133000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>155000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>131000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>146000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>165000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>155000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>201000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>198000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>136000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>34000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>514000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>58000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>59000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>242000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>152000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>22000</v>
       </c>
       <c r="O58" s="3">
         <v>22000</v>
@@ -3650,10 +3784,10 @@
         <v>22000</v>
       </c>
       <c r="S58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="T58" s="3">
         <v>11000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>166000</v>
       </c>
       <c r="U58" s="3">
         <v>166000</v>
@@ -3664,268 +3798,283 @@
       <c r="W58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E59" s="3">
         <v>384000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>362000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>391000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>404000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>346000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>389000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>322000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>328000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>363000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>140000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>145000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>169000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>182000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>152000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>166000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>133000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>183000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>146000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>262000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>779000</v>
+      </c>
+      <c r="E60" s="3">
         <v>793000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1254000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>805000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>764000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>727000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>911000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>702000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>629000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>718000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>442000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>346000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>335000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>320000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>353000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>299000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>550000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>510000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>564000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2675000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2804000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2901000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3263000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3424000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3427000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2954000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2988000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3067000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3136000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3223000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3139000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3143000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3147000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3124000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3125000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3129000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2886000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2887000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2888000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E62" s="3">
         <v>609000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>611000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>629000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600000</v>
       </c>
       <c r="H62" s="3">
         <v>600000</v>
       </c>
       <c r="I62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="J62" s="3">
         <v>586000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>662000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>637000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>633000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>381000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>341000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>346000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>354000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>381000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>371000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>357000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>383000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>381000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>359000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4093000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4260000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4811000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4870000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4925000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4880000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4577000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4520000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4490000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4637000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4150000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3959000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4007000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4008000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4029000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4035000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3943000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3981000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3931000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3955000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E72" s="3">
         <v>501000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>440000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>434000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-485000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-471000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-493000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-486000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-466000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-397000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-357000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-346000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-347000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-377000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-327000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-321000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-66000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1922000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1812000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1698000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1551000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>602000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>553000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>748000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>667000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>779000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>576000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>683000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>707000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>725000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>829000</v>
       </c>
       <c r="R76" s="3">
         <v>829000</v>
       </c>
       <c r="S76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="T76" s="3">
         <v>748000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1013000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>991000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1009000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E81" s="3">
         <v>73000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>896000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-44000</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-247000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-41000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>121000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E83" s="3">
         <v>71000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>84000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>62000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>61000</v>
       </c>
       <c r="V83" s="3">
         <v>61000</v>
       </c>
       <c r="W83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="X83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E89" s="3">
         <v>210000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>135000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>199000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>175000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>148000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>112000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>64000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>77000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>60000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-28000</v>
       </c>
       <c r="R91" s="3">
         <v>-28000</v>
       </c>
       <c r="S91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="T91" s="3">
         <v>33000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-44000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-52000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-59000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-57000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-65000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-942000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-53000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-52000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>643000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,19 +6017,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-14000</v>
+        <v>-18000</v>
       </c>
       <c r="E96" s="3">
         <v>-14000</v>
       </c>
       <c r="F96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="G96" s="3">
         <v>-10000</v>
@@ -5808,10 +6042,10 @@
         <v>-10000</v>
       </c>
       <c r="J96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7000</v>
       </c>
       <c r="L96" s="3">
         <v>-7000</v>
@@ -5820,13 +6054,13 @@
         <v>-7000</v>
       </c>
       <c r="N96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-6000</v>
       </c>
       <c r="Q96" s="3">
         <v>-6000</v>
@@ -5835,10 +6069,10 @@
         <v>-6000</v>
       </c>
       <c r="S96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-6000</v>
       </c>
       <c r="U96" s="3">
         <v>-6000</v>
@@ -5847,10 +6081,13 @@
         <v>-6000</v>
       </c>
       <c r="W96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-621000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-226000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>273000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>193000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-121000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-467000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>51000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1000</v>
       </c>
       <c r="H101" s="3">
         <v>1000</v>
       </c>
       <c r="I101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-460000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>119000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-101000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>320000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>118000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-90000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-40000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>755000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>38000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>46000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>884000</v>
+      </c>
+      <c r="E8" s="3">
         <v>870000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>927000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>891000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>783000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>675000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>578000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>722000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>693000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>768000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>791000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>390000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>429000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>456000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>492000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>442000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>464000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>435000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>421000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>378000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>352000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E9" s="3">
         <v>636000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>687000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>605000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>536000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>449000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>547000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>545000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>614000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>672000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>307000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>311000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>335000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>348000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>327000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>339000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>329000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>326000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>315000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>298000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E10" s="3">
         <v>234000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>227000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>204000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>178000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>139000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>129000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>175000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>148000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>83000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>118000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>121000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>144000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>115000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>106000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>95000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>63000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>54000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>53000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7000</v>
       </c>
       <c r="I14" s="3">
         <v>7000</v>
       </c>
       <c r="J14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>30000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>28000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,28 +1232,28 @@
         <v>9000</v>
       </c>
       <c r="G15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H15" s="3">
         <v>10000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7000</v>
       </c>
       <c r="O15" s="3">
         <v>7000</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E17" s="3">
         <v>705000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>818000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>691000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>626000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>529000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>643000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>650000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>720000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>804000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>376000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>361000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>403000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>457000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>428000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>404000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>412000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>389000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>381000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>351000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E18" s="3">
         <v>165000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>127000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>49000</v>
       </c>
       <c r="I18" s="3">
         <v>49000</v>
       </c>
       <c r="J18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K18" s="3">
         <v>79000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>23000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9000</v>
       </c>
       <c r="G20" s="3">
         <v>9000</v>
       </c>
       <c r="H20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3000</v>
       </c>
       <c r="L20" s="3">
         <v>3000</v>
       </c>
       <c r="M20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>86000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>38000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E21" s="3">
         <v>250000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>166000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>186000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>133000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>163000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>79000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>116000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>120000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>61000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>78000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>164000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>80000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>39000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
         <v>37000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>49000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>49000</v>
       </c>
       <c r="O22" s="3">
         <v>49000</v>
       </c>
       <c r="P22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>48000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>135000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>91000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>44000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E23" s="3">
         <v>141000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-59000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-36000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-56000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-51000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-893000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-27000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1162000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-150000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E26" s="3">
         <v>113000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>902000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>40000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-55000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-41000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-53000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>99000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E27" s="3">
         <v>111000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>45000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>896000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-61000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-44000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-31000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-56000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>97000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2117,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2074,8 +2134,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2083,27 +2143,27 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>6000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2111,25 +2171,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1166000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-216000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>22000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>15000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>24000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-9000</v>
       </c>
       <c r="G32" s="3">
         <v>-9000</v>
       </c>
       <c r="H32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3000</v>
       </c>
       <c r="L32" s="3">
         <v>-3000</v>
       </c>
       <c r="M32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-86000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-38000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E33" s="3">
         <v>111000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>73000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>896000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-44000</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-247000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-41000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>121000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E35" s="3">
         <v>111000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>73000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>896000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-44000</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-247000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-41000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>121000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E41" s="3">
         <v>309000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>303000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>759000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>619000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>722000</v>
       </c>
       <c r="I41" s="3">
         <v>722000</v>
       </c>
       <c r="J41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="K41" s="3">
         <v>420000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>302000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>305000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>397000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1068000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1034000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1036000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1074000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1116000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1058000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>303000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>265000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>248000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2886,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E43" s="3">
         <v>631000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>687000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>658000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>544000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>487000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>449000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>560000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>488000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>576000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>603000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>302000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>319000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>334000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>349000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>338000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>673000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>310000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>457000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>428000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>289000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1011000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1020000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1052000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1137000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1176000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1174000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1054000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1131000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1035000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1097000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>486000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>479000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>475000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>451000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>470000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>473000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>459000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>506000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>510000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>499000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E45" s="3">
         <v>151000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>175000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>171000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>229000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>201000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>162000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>124000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>152000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>165000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>715000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>712000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>718000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>769000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>741000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>713000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>697000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>56000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>42000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1702000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2049000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2102000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2185000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2640000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2529000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2586000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2507000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2158000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2073000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2053000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2262000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2571000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2544000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2604000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2605000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2623000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2639000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2524000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1322000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1245000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2738000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3241,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2542000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2550000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2596000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2583000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2643000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2513000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2506000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2505000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2715000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2621000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2562000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1841000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1800000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1823000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1861000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2016000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2885000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1928000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3424000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3422000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1969000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E49" s="3">
         <v>214000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>206000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>201000</v>
       </c>
       <c r="G49" s="3">
         <v>201000</v>
       </c>
       <c r="H49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="I49" s="3">
         <v>203000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>195000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>202000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>208000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>222000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>299000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>169000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>176000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>182000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>188000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>192000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>198000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>203000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>210000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>217000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>223000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1177000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1195000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1199000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1195000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1174000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>274000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>265000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>272000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>261000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>293000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>145000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>122000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>105000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>27000</v>
       </c>
       <c r="S52" s="3">
         <v>27000</v>
       </c>
       <c r="T52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="U52" s="3">
         <v>36000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>38000</v>
       </c>
       <c r="V52" s="3">
         <v>38000</v>
       </c>
       <c r="W52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="X52" s="3">
         <v>34000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5987000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6043000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6182000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6623000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6568000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6476000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5482000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5130000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5268000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5157000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5416000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4726000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4642000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4714000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4733000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4858000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4864000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4691000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4994000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4922000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4964000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,114 +3794,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E57" s="3">
         <v>394000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>375000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>378000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>356000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>306000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>322000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>280000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>342000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>246000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>297000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>150000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>133000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>155000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>131000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>146000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>165000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>155000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>201000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>198000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>136000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>34000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>514000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>58000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>54000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>59000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>242000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>152000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>22000</v>
       </c>
       <c r="P58" s="3">
         <v>22000</v>
@@ -3787,10 +3920,10 @@
         <v>22000</v>
       </c>
       <c r="T58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="U58" s="3">
         <v>11000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>166000</v>
       </c>
       <c r="V58" s="3">
         <v>166000</v>
@@ -3801,280 +3934,295 @@
       <c r="X58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E59" s="3">
         <v>378000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>384000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>362000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>391000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>404000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>346000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>389000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>322000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>328000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>363000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>140000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>145000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>169000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>182000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>152000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>166000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>133000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>183000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>146000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>262000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>822000</v>
+      </c>
+      <c r="E60" s="3">
         <v>779000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>793000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1254000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>805000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>764000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>727000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>911000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>702000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>629000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>718000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>442000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>346000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>335000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>320000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>353000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>299000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>550000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>510000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>564000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2675000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2804000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2901000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3263000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3424000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3427000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2954000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2988000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3067000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3136000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3223000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3139000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3143000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3147000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3124000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3125000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3129000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2886000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2887000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2888000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E62" s="3">
         <v>590000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>609000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>611000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>629000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600000</v>
       </c>
       <c r="I62" s="3">
         <v>600000</v>
       </c>
       <c r="J62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K62" s="3">
         <v>586000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>662000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>637000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>633000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>381000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>341000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>346000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>354000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>381000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>371000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>357000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>383000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>381000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>359000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3993000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4093000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4260000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4811000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4870000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4925000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4880000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4577000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4520000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4490000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4637000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4150000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3959000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4007000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4008000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4029000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4035000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3943000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3981000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3931000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3955000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>663000</v>
+      </c>
+      <c r="E72" s="3">
         <v>596000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>501000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>440000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>434000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-485000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-471000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-493000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-486000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-466000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-397000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-357000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-346000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-347000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-377000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-327000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-321000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-66000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-32000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1994000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1950000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1922000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1812000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1698000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1551000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>602000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>553000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>748000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>667000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>779000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>576000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>683000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>707000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>725000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>829000</v>
       </c>
       <c r="S76" s="3">
         <v>829000</v>
       </c>
       <c r="T76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="U76" s="3">
         <v>748000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1013000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>991000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1009000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E81" s="3">
         <v>111000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>73000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>896000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-44000</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-247000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-41000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>121000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>85000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>76000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>46000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>62000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>61000</v>
       </c>
       <c r="W83" s="3">
         <v>61000</v>
       </c>
       <c r="X83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E89" s="3">
         <v>256000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>210000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>135000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>199000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>175000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>112000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>64000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>77000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>60000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>87000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-28000</v>
       </c>
       <c r="S91" s="3">
         <v>-28000</v>
       </c>
       <c r="T91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="U91" s="3">
         <v>33000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-44000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-52000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-59000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-57000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-129000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-942000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-53000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>643000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-32000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,22 +6250,23 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-14000</v>
       </c>
       <c r="F96" s="3">
         <v>-14000</v>
       </c>
       <c r="G96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="H96" s="3">
         <v>-10000</v>
@@ -6045,10 +6278,10 @@
         <v>-10000</v>
       </c>
       <c r="K96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-7000</v>
       </c>
       <c r="M96" s="3">
         <v>-7000</v>
@@ -6057,13 +6290,13 @@
         <v>-7000</v>
       </c>
       <c r="O96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-6000</v>
       </c>
       <c r="R96" s="3">
         <v>-6000</v>
@@ -6072,10 +6305,10 @@
         <v>-6000</v>
       </c>
       <c r="T96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-6000</v>
       </c>
       <c r="V96" s="3">
         <v>-6000</v>
@@ -6084,10 +6317,13 @@
         <v>-6000</v>
       </c>
       <c r="X96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-179000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-621000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-226000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>273000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>193000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-467000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>50000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>51000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-19000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1000</v>
       </c>
       <c r="I101" s="3">
         <v>1000</v>
       </c>
       <c r="J101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-460000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>119000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>320000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>118000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-90000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-40000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-40000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>755000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>38000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>46000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E8" s="3">
         <v>884000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>870000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>927000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>891000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>783000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>675000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>578000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>722000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>693000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>768000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>791000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>390000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>429000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>456000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>492000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>442000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>464000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>435000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>421000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>378000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>352000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E9" s="3">
         <v>666000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>636000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>687000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>605000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>536000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>449000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>547000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>545000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>614000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>672000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>307000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>311000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>335000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>348000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>327000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>339000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>329000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>326000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>315000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>298000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E10" s="3">
         <v>218000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>234000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>227000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>204000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>178000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>139000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>129000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>175000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>148000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>154000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>83000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>118000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>121000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>144000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>115000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>125000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>106000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>95000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>63000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>54000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>53000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7000</v>
       </c>
       <c r="J14" s="3">
         <v>7000</v>
       </c>
       <c r="K14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>6000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>30000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>28000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,28 +1258,28 @@
         <v>9000</v>
       </c>
       <c r="H15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I15" s="3">
         <v>10000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7000</v>
       </c>
       <c r="P15" s="3">
         <v>7000</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>897000</v>
+      </c>
+      <c r="E17" s="3">
         <v>755000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>705000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>818000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>691000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>626000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>529000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>643000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>650000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>720000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>804000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>376000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>361000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>403000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>457000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>428000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>404000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>412000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>389000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>381000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>351000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E18" s="3">
         <v>129000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>165000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>127000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>73000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>49000</v>
       </c>
       <c r="J18" s="3">
         <v>49000</v>
       </c>
       <c r="K18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L18" s="3">
         <v>79000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9000</v>
       </c>
       <c r="H20" s="3">
         <v>9000</v>
       </c>
       <c r="I20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3000</v>
       </c>
       <c r="M20" s="3">
         <v>3000</v>
       </c>
       <c r="N20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>36000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>86000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>38000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E21" s="3">
         <v>208000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>250000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>166000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>186000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>133000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>163000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>121000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>134000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>116000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>120000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>61000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>78000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>164000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>80000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>39000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E22" s="3">
         <v>34000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>37000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>49000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>47000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>49000</v>
       </c>
       <c r="P22" s="3">
         <v>49000</v>
       </c>
       <c r="Q22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R22" s="3">
         <v>47000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>48000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>135000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>91000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>44000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>104000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>97000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-59000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-36000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-56000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
         <v>17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-893000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-27000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1162000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-150000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="3">
         <v>87000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>113000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>902000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-55000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-41000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-25000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-53000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>99000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E27" s="3">
         <v>83000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>111000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>45000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>896000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-61000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-44000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-56000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>97000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,16 +2178,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2137,8 +2198,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2146,27 +2207,27 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>6000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2174,25 +2235,28 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>1166000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-216000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>22000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>15000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>24000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-9000</v>
       </c>
       <c r="H32" s="3">
         <v>-9000</v>
       </c>
       <c r="I32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3000</v>
       </c>
       <c r="M32" s="3">
         <v>-3000</v>
       </c>
       <c r="N32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-36000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-86000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-38000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E33" s="3">
         <v>83000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>111000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>73000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>45000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>896000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-62000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-44000</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-247000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-41000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>121000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E35" s="3">
         <v>83000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>111000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>73000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>45000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>896000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-62000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-44000</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-247000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-41000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>121000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E41" s="3">
         <v>228000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>309000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>303000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>759000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>619000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>722000</v>
       </c>
       <c r="J41" s="3">
         <v>722000</v>
       </c>
       <c r="K41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="L41" s="3">
         <v>420000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>302000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>305000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>397000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1068000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1077000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1036000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1074000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1116000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1058000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>303000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>265000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>248000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E43" s="3">
         <v>637000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>631000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>687000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>658000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>544000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>487000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>449000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>560000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>488000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>576000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>603000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>302000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>319000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>334000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>349000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>338000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>673000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>310000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>457000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>428000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>289000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1048000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1011000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1020000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1052000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1137000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1176000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1174000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1054000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1131000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1035000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1097000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>486000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>479000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>475000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>451000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>470000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>473000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>459000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>506000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>510000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>499000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E45" s="3">
         <v>136000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>151000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>175000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>171000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>229000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>201000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>162000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>124000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>152000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>137000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>165000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>715000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>712000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>718000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>769000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>741000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>713000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>697000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>56000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>42000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1702000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2049000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2102000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2185000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2640000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2529000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2586000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2507000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2158000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2073000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2053000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2262000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2571000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2544000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2604000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2605000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2623000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2639000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2524000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1322000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1245000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2738000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,150 +3349,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2619000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2542000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2550000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2596000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2583000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2643000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2513000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2506000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2505000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2715000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2621000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2562000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1841000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1800000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1823000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1861000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2016000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2885000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1928000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3424000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3422000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1969000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E49" s="3">
         <v>217000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>214000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>206000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>201000</v>
       </c>
       <c r="H49" s="3">
         <v>201000</v>
       </c>
       <c r="I49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="J49" s="3">
         <v>203000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>195000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>202000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>208000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>222000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>299000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>169000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>176000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>182000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>188000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>192000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>198000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>203000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>210000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>217000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>223000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1178000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1179000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1177000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1195000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1199000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1195000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1174000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>274000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>265000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>272000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>261000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>293000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>145000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>122000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>105000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>27000</v>
       </c>
       <c r="T52" s="3">
         <v>27000</v>
       </c>
       <c r="U52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="V52" s="3">
         <v>36000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>38000</v>
       </c>
       <c r="W52" s="3">
         <v>38000</v>
       </c>
       <c r="X52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>34000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6215000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5987000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6043000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6182000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6623000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6568000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6476000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5482000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5130000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5268000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5157000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5416000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4726000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4642000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4714000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4733000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4858000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4864000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4691000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4994000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4922000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4964000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,120 +3925,124 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E57" s="3">
         <v>438000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>394000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>375000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>378000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>356000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>306000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>322000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>280000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>342000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>246000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>297000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>150000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>133000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>155000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>131000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>146000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>165000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>155000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>201000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>198000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>136000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>18000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>514000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>58000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>54000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>59000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>242000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>55000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>152000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>22000</v>
       </c>
       <c r="Q58" s="3">
         <v>22000</v>
@@ -3923,10 +4057,10 @@
         <v>22000</v>
       </c>
       <c r="U58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="V58" s="3">
         <v>11000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>166000</v>
       </c>
       <c r="W58" s="3">
         <v>166000</v>
@@ -3937,292 +4071,307 @@
       <c r="Y58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E59" s="3">
         <v>366000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>378000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>384000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>362000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>391000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>404000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>346000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>389000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>322000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>328000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>363000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>140000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>145000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>169000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>182000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>152000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>166000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>133000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>183000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>146000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>262000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E60" s="3">
         <v>822000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>779000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>793000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1254000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>805000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>764000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>727000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>911000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>702000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>629000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>718000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>442000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>346000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>335000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>320000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>353000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>299000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>550000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>510000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>564000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2567000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2558000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2675000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2804000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2901000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3263000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3424000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3427000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2954000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2988000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3067000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3136000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3223000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3139000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3143000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3147000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3124000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3125000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3129000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2886000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2887000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2888000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E62" s="3">
         <v>565000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>590000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>609000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>611000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>629000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600000</v>
       </c>
       <c r="J62" s="3">
         <v>600000</v>
       </c>
       <c r="K62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="L62" s="3">
         <v>586000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>662000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>637000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>633000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>381000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>341000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>346000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>354000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>381000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>371000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>357000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>383000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>381000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>359000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4142000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3993000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4093000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4260000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4811000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4870000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4925000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4880000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4577000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4520000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4490000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4637000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4150000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3959000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4007000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4008000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4029000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4035000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3943000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3981000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3931000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3955000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>659000</v>
+      </c>
+      <c r="E72" s="3">
         <v>663000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>596000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>501000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>440000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>434000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>400000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-485000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-471000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-493000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-486000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-466000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-397000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-357000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-346000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-347000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-377000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-327000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-321000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-66000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2073000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1994000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1950000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1922000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1812000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1698000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1551000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>602000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>553000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>748000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>667000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>779000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>576000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>683000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>707000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>725000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>829000</v>
       </c>
       <c r="T76" s="3">
         <v>829000</v>
       </c>
       <c r="U76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="V76" s="3">
         <v>748000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1013000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>991000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1009000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E81" s="3">
         <v>83000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>111000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>73000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>45000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>896000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-62000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-44000</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-247000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-41000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>121000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E83" s="3">
         <v>70000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>85000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>76000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>46000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>62000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>61000</v>
       </c>
       <c r="X83" s="3">
         <v>61000</v>
       </c>
       <c r="Y83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E89" s="3">
         <v>139000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>256000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>210000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>135000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>199000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>175000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>112000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>64000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>77000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>60000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>87000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-66000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-28000</v>
       </c>
       <c r="T91" s="3">
         <v>-28000</v>
       </c>
       <c r="U91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="V91" s="3">
         <v>33000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-44000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-52000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-88000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-78000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-129000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-942000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-52000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>643000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-32000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,25 +6484,26 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-14000</v>
       </c>
       <c r="G96" s="3">
         <v>-14000</v>
       </c>
       <c r="H96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="I96" s="3">
         <v>-10000</v>
@@ -6281,10 +6515,10 @@
         <v>-10000</v>
       </c>
       <c r="L96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7000</v>
       </c>
       <c r="N96" s="3">
         <v>-7000</v>
@@ -6293,13 +6527,13 @@
         <v>-7000</v>
       </c>
       <c r="P96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-6000</v>
       </c>
       <c r="S96" s="3">
         <v>-6000</v>
@@ -6308,10 +6542,10 @@
         <v>-6000</v>
       </c>
       <c r="U96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-6000</v>
       </c>
       <c r="W96" s="3">
         <v>-6000</v>
@@ -6320,10 +6554,13 @@
         <v>-6000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-125000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-179000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-621000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-226000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>273000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>193000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-467000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>50000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>51000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1000</v>
       </c>
       <c r="J101" s="3">
         <v>1000</v>
       </c>
       <c r="K101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-460000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>119000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-101000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>320000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>118000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-90000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-40000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>755000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>38000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>46000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E8" s="3">
         <v>965000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>884000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>870000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>927000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>891000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>783000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>675000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>578000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>722000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>693000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>768000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>791000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>390000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>429000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>456000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>492000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>442000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>464000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>435000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>421000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>378000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>352000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E9" s="3">
         <v>733000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>666000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>636000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>687000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>605000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>536000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>449000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>547000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>545000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>614000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>672000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>307000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>311000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>335000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>348000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>327000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>339000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>329000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>326000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>315000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>298000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E10" s="3">
         <v>232000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>218000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>234000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>227000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>204000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>178000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>139000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>129000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>175000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>148000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>154000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>83000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>118000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>121000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>144000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>115000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>125000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>106000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>95000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>63000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>54000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,87 +1183,93 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>53000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7000</v>
       </c>
       <c r="K14" s="3">
         <v>7000</v>
       </c>
       <c r="L14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>6000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>30000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>28000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="E15" s="3">
         <v>9000</v>
@@ -1261,28 +1284,28 @@
         <v>9000</v>
       </c>
       <c r="I15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J15" s="3">
         <v>10000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7000</v>
       </c>
       <c r="Q15" s="3">
         <v>7000</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E17" s="3">
         <v>897000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>755000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>705000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>818000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>691000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>626000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>529000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>643000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>650000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>720000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>804000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>376000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>361000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>403000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>457000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>428000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>404000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>412000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>389000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>381000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>351000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E18" s="3">
         <v>68000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>129000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>165000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>127000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>49000</v>
       </c>
       <c r="K18" s="3">
         <v>49000</v>
       </c>
       <c r="L18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M18" s="3">
         <v>79000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>23000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>32000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>9000</v>
       </c>
       <c r="I20" s="3">
         <v>9000</v>
       </c>
       <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3000</v>
       </c>
       <c r="N20" s="3">
         <v>3000</v>
       </c>
       <c r="O20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>10000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>86000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>38000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E21" s="3">
         <v>134000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>208000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>250000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>166000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>186000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>133000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>163000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>79000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>134000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>116000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>120000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>61000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>78000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>164000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>80000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>39000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>49000</v>
       </c>
       <c r="Q22" s="3">
         <v>49000</v>
       </c>
       <c r="R22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="S22" s="3">
         <v>47000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>48000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>48000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>135000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>91000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>44000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E23" s="3">
         <v>34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>104000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>141000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-59000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-36000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-51000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-893000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-27000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1162000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-150000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E26" s="3">
         <v>16000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>113000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>902000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-55000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-41000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-25000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-53000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>99000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E27" s="3">
         <v>16000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>111000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>45000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>896000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32000</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-61000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-44000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-31000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-19000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>97000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,19 +2239,22 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2201,8 +2262,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2210,27 +2271,27 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>6000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2238,25 +2299,28 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1166000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-216000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>22000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>15000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>24000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-9000</v>
       </c>
       <c r="I32" s="3">
         <v>-9000</v>
       </c>
       <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3000</v>
       </c>
       <c r="N32" s="3">
         <v>-3000</v>
       </c>
       <c r="O32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-10000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-86000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E33" s="3">
         <v>16000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>111000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>73000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>896000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32000</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-13000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-62000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-44000</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-247000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>121000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E35" s="3">
         <v>16000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>111000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>73000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>896000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32000</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-13000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-62000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-44000</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-247000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>121000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E41" s="3">
         <v>292000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>228000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>309000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>303000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>759000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>619000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>722000</v>
       </c>
       <c r="K41" s="3">
         <v>722000</v>
       </c>
       <c r="L41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="M41" s="3">
         <v>420000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>302000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>305000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>397000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1034000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1077000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1036000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1074000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1116000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1058000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>303000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>265000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>248000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>641000</v>
+      </c>
+      <c r="E43" s="3">
         <v>656000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>637000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>631000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>687000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>658000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>544000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>487000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>449000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>560000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>488000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>576000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>603000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>302000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>319000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>334000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>349000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>338000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>673000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>310000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>457000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>428000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>289000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1050000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1048000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1011000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1020000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1052000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1137000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1176000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1174000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1054000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1131000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1035000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1097000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>486000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>479000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>475000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>451000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>470000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>473000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>459000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>506000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>510000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>499000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E45" s="3">
         <v>191000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>151000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>175000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>171000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>229000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>201000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>124000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>152000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>137000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>165000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>715000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>712000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>718000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>769000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>741000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>713000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>697000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>56000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>42000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1702000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2189000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2049000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2102000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2185000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2640000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2529000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2586000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2507000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2158000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2073000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2053000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2262000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2544000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2604000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2605000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2623000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2639000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2524000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1322000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1245000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2738000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2555000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2619000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2542000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2550000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2596000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2583000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2643000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2513000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2506000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2505000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2715000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2621000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2562000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1841000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1823000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1861000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2016000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2885000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1928000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3424000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3422000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1969000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E49" s="3">
         <v>229000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>217000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>214000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>206000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>201000</v>
       </c>
       <c r="I49" s="3">
         <v>201000</v>
       </c>
       <c r="J49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K49" s="3">
         <v>203000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>195000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>202000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>208000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>222000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>299000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>169000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>176000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>182000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>188000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>192000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>198000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>203000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>210000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>217000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>223000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1419000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1178000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1179000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1177000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1195000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1199000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1195000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1174000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>274000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>265000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>272000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>261000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>293000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>145000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>122000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>105000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>79000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>27000</v>
       </c>
       <c r="U52" s="3">
         <v>27000</v>
       </c>
       <c r="V52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="W52" s="3">
         <v>36000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>38000</v>
       </c>
       <c r="X52" s="3">
         <v>38000</v>
       </c>
       <c r="Y52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>34000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6220000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6215000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5987000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6043000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6182000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6623000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6568000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6476000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5482000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5130000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5268000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5157000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5416000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4726000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4642000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4714000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4733000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4858000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4864000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4691000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4994000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4922000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4964000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,126 +4056,130 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E57" s="3">
         <v>490000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>438000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>394000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>375000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>378000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>356000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>306000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>322000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>280000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>342000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>246000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>297000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>150000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>133000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>155000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>131000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>146000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>165000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>155000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>201000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>198000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>136000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>514000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>54000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>59000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>242000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>55000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>152000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>22000</v>
       </c>
       <c r="R58" s="3">
         <v>22000</v>
@@ -4060,10 +4194,10 @@
         <v>22000</v>
       </c>
       <c r="V58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="W58" s="3">
         <v>11000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>166000</v>
       </c>
       <c r="X58" s="3">
         <v>166000</v>
@@ -4074,304 +4208,319 @@
       <c r="Z58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E59" s="3">
         <v>417000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>366000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>378000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>384000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>362000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>391000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>404000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>346000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>389000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>322000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>328000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>363000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>140000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>145000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>169000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>182000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>152000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>166000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>133000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>183000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>146000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>262000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>885000</v>
+      </c>
+      <c r="E60" s="3">
         <v>923000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>822000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>779000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>793000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1254000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>805000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>764000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>727000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>911000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>702000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>629000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>718000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>442000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>346000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>335000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>320000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>353000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>299000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>550000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>510000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>564000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2449000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2567000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2558000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2675000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2804000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2901000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3263000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3424000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3427000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2954000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2988000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3067000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3136000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3223000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3139000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3143000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3147000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3124000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3125000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3129000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2886000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2887000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2888000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E62" s="3">
         <v>596000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>565000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>590000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>609000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>611000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>629000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600000</v>
       </c>
       <c r="K62" s="3">
         <v>600000</v>
       </c>
       <c r="L62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="M62" s="3">
         <v>586000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>662000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>637000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>633000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>381000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>341000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>346000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>354000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>381000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>371000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>357000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>383000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>381000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>359000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3945000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4142000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3993000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4093000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4260000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4811000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4870000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4925000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4880000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4577000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4520000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4490000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4637000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4150000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3959000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4007000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4008000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4029000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4035000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3943000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3981000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3931000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3955000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E72" s="3">
         <v>659000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>663000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>596000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>501000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>440000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>434000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>400000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-485000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-471000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-493000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-486000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-466000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-397000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-357000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-346000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-347000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-377000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-327000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-321000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2073000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1994000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1950000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1922000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1812000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1698000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1551000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>602000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>553000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>748000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>667000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>779000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>576000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>683000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>707000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>725000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>829000</v>
       </c>
       <c r="U76" s="3">
         <v>829000</v>
       </c>
       <c r="V76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="W76" s="3">
         <v>748000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1013000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>991000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1009000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E81" s="3">
         <v>16000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>111000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>73000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>896000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32000</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-13000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-62000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-44000</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-247000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>121000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E83" s="3">
         <v>68000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>85000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>76000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>46000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>62000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>61000</v>
       </c>
       <c r="Y83" s="3">
         <v>61000</v>
       </c>
       <c r="Z83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E89" s="3">
         <v>189000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>256000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>210000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>135000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>199000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>84000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>175000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>148000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>112000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>64000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>77000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>60000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>87000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-103000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-28000</v>
       </c>
       <c r="U91" s="3">
         <v>-28000</v>
       </c>
       <c r="V91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="W91" s="3">
         <v>33000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-44000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-65000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-942000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-53000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>643000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,28 +6718,29 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-14000</v>
       </c>
       <c r="H96" s="3">
         <v>-14000</v>
       </c>
       <c r="I96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="J96" s="3">
         <v>-10000</v>
@@ -6518,10 +6752,10 @@
         <v>-10000</v>
       </c>
       <c r="M96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7000</v>
       </c>
       <c r="O96" s="3">
         <v>-7000</v>
@@ -6530,13 +6764,13 @@
         <v>-7000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-6000</v>
       </c>
       <c r="T96" s="3">
         <v>-6000</v>
@@ -6545,10 +6779,10 @@
         <v>-6000</v>
       </c>
       <c r="V96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-6000</v>
       </c>
       <c r="X96" s="3">
         <v>-6000</v>
@@ -6557,10 +6791,13 @@
         <v>-6000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-179000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-621000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-226000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>193000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-467000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>51000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1000</v>
       </c>
       <c r="K101" s="3">
         <v>1000</v>
       </c>
       <c r="L101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E102" s="3">
         <v>64000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-81000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-460000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>119000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-101000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>320000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>118000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-90000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-40000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>44000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-37000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>58000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>755000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>38000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>46000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E8" s="3">
         <v>945000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>965000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>884000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>870000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>927000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>891000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>783000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>675000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>578000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>722000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>693000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>768000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>791000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>390000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>429000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>456000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>492000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>442000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>464000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>435000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>421000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>378000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>352000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E9" s="3">
         <v>681000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>733000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>666000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>636000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>687000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>605000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>536000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>449000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>547000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>545000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>614000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>672000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>307000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>311000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>335000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>348000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>327000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>339000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>329000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>326000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>315000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>298000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E10" s="3">
         <v>264000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>232000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>218000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>234000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>227000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>204000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>178000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>139000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>129000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>175000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>148000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>83000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>118000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>121000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>144000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>115000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>125000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>106000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>95000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>63000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>54000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,93 +1203,99 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>22000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>53000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>7000</v>
       </c>
       <c r="L14" s="3">
         <v>7000</v>
       </c>
       <c r="M14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>6000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>30000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>28000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9000</v>
       </c>
       <c r="F15" s="3">
         <v>9000</v>
@@ -1287,28 +1310,28 @@
         <v>9000</v>
       </c>
       <c r="J15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7000</v>
       </c>
       <c r="R15" s="3">
         <v>7000</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E17" s="3">
         <v>775000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>897000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>755000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>705000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>818000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>691000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>626000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>529000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>643000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>650000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>720000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>804000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>376000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>361000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>403000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>457000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>428000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>404000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>412000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>389000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>381000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>351000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E18" s="3">
         <v>170000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>129000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>165000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>127000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>49000</v>
       </c>
       <c r="L18" s="3">
         <v>49000</v>
       </c>
       <c r="M18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N18" s="3">
         <v>79000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>23000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>32000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1000</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,384 +1592,399 @@
         <v>10000</v>
       </c>
       <c r="E20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9000</v>
       </c>
       <c r="J20" s="3">
         <v>9000</v>
       </c>
       <c r="K20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3000</v>
       </c>
       <c r="O20" s="3">
         <v>3000</v>
       </c>
       <c r="P20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>86000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>38000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E21" s="3">
         <v>247000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>134000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>208000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>250000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>204000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>166000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>186000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>133000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>163000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>121000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>79000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>68000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>134000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>116000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>120000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>61000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>92000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>78000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>164000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>80000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>39000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>36000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>49000</v>
       </c>
       <c r="R22" s="3">
         <v>49000</v>
       </c>
       <c r="S22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T22" s="3">
         <v>47000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>48000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>49000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>48000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>45000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>135000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>91000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>44000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E23" s="3">
         <v>152000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>104000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>141000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-36000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-51000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-223000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-893000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-27000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1162000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-150000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E26" s="3">
         <v>375000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>87000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>113000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>77000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>902000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-41000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-25000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-53000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>99000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E27" s="3">
         <v>375000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>111000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>896000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32000</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-44000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-31000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>97000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,11 +2314,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2265,8 +2326,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2274,27 +2335,27 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>6000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2302,25 +2363,28 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1166000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-216000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>22000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>15000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>24000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,153 +2552,159 @@
         <v>-10000</v>
       </c>
       <c r="E32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-9000</v>
       </c>
       <c r="J32" s="3">
         <v>-9000</v>
       </c>
       <c r="K32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3000</v>
       </c>
       <c r="O32" s="3">
         <v>-3000</v>
       </c>
       <c r="P32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E33" s="3">
         <v>375000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>111000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>896000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32000</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-13000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-44000</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-247000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>121000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E35" s="3">
         <v>375000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>111000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>896000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32000</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-13000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-44000</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-247000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>121000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E41" s="3">
         <v>112000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>228000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>309000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>303000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>759000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>619000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>722000</v>
       </c>
       <c r="L41" s="3">
         <v>722000</v>
       </c>
       <c r="M41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="N41" s="3">
         <v>420000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>302000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>305000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>397000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1068000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1034000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1077000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1036000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1074000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1116000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1058000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>303000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>265000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>248000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,162 +3165,171 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E43" s="3">
         <v>641000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>656000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>637000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>631000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>687000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>658000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>544000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>487000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>449000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>560000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>488000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>576000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>603000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>302000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>319000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>334000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>349000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>338000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>673000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>310000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>457000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>428000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>289000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1106000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1050000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1048000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1011000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1020000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1052000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1137000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1176000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1174000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1054000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1131000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1035000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>486000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>479000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>475000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>451000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>470000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>473000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>459000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>506000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>510000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>499000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,153 +3337,159 @@
         <v>145000</v>
       </c>
       <c r="E45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="F45" s="3">
         <v>191000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>151000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>175000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>171000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>229000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>124000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>137000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>165000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>715000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>712000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>718000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>769000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>741000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>713000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>697000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>56000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>42000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1702000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1967000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2004000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2189000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2049000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2102000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2185000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2640000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2529000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2586000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2507000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2158000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2073000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2053000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2262000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2571000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2544000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2604000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2605000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2623000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2639000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2524000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1322000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1245000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2738000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3565,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2524000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2555000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2619000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2542000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2550000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2596000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2583000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2643000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2513000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2506000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2505000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2715000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2621000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2562000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1841000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1823000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1861000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2016000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2885000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1928000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3424000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3422000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1969000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E49" s="3">
         <v>242000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>229000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>217000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>214000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>206000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>201000</v>
       </c>
       <c r="J49" s="3">
         <v>201000</v>
       </c>
       <c r="K49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="L49" s="3">
         <v>203000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>195000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>202000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>208000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>222000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>299000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>169000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>176000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>182000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>188000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>192000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>198000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>203000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>210000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>217000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>223000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1419000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1178000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1179000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1177000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1195000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1199000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1195000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1174000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>274000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>265000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>272000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>261000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>293000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>145000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>122000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>105000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>79000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>27000</v>
       </c>
       <c r="V52" s="3">
         <v>27000</v>
       </c>
       <c r="W52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="X52" s="3">
         <v>36000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>38000</v>
       </c>
       <c r="Y52" s="3">
         <v>38000</v>
       </c>
       <c r="Z52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>34000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6159000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6220000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6215000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5987000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6043000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6182000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6623000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6568000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6476000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5482000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5130000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5268000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5157000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5416000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4726000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4642000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4714000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4733000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4858000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4864000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4691000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4994000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4922000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4964000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,132 +4187,136 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E57" s="3">
         <v>508000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>490000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>438000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>394000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>375000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>378000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>356000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>306000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>322000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>280000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>342000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>246000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>297000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>150000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>133000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>155000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>131000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>146000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>165000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>155000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>201000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>198000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>136000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E58" s="3">
         <v>89000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>514000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>59000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>242000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>152000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>22000</v>
       </c>
       <c r="S58" s="3">
         <v>22000</v>
@@ -4197,10 +4331,10 @@
         <v>22000</v>
       </c>
       <c r="W58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="X58" s="3">
         <v>11000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>166000</v>
       </c>
       <c r="Y58" s="3">
         <v>166000</v>
@@ -4211,316 +4345,331 @@
       <c r="AA58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E59" s="3">
         <v>288000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>417000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>366000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>378000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>384000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>362000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>391000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>404000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>346000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>389000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>322000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>328000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>363000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>140000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>145000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>169000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>182000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>152000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>166000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>133000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>183000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>146000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>262000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E60" s="3">
         <v>885000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>923000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>822000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>779000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>793000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1254000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>805000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>764000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>727000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>911000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>702000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>629000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>718000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>442000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>346000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>335000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>320000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>353000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>299000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>550000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>510000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>564000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2463000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2449000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2567000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2558000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2675000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2804000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2901000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3263000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3424000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3427000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2954000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2988000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3067000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3136000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3223000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3139000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3143000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3147000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3124000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3125000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3129000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2886000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2887000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2888000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E62" s="3">
         <v>560000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>596000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>565000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>590000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>609000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>611000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>629000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600000</v>
       </c>
       <c r="L62" s="3">
         <v>600000</v>
       </c>
       <c r="M62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="N62" s="3">
         <v>586000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>662000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>637000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>633000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>381000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>341000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>346000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>354000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>381000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>371000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>357000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>383000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>381000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>359000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3888000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3945000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4142000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3993000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4093000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4260000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4811000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4870000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4925000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4880000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4577000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4520000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4490000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4637000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4150000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3959000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4007000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4008000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4029000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4035000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3943000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3981000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3931000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3955000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1014000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>659000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>663000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>596000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>501000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>440000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>434000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-485000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-471000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-493000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-486000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-466000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-397000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-357000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-346000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-347000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-377000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-327000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-321000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-66000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2275000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2073000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1994000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1950000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1922000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1812000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1698000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1551000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>602000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>553000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>748000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>667000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>779000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>576000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>683000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>707000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>725000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>829000</v>
       </c>
       <c r="V76" s="3">
         <v>829000</v>
       </c>
       <c r="W76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="X76" s="3">
         <v>748000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1013000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>991000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1009000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E81" s="3">
         <v>375000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>111000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>896000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32000</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-13000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-62000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-44000</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-247000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>121000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E83" s="3">
         <v>67000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>85000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>76000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>49000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>46000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>62000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>61000</v>
       </c>
       <c r="Z83" s="3">
         <v>61000</v>
       </c>
       <c r="AA83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E89" s="3">
         <v>32000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>189000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>256000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>210000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>135000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>199000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>175000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>148000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>112000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>72000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>64000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>77000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>60000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>87000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-103000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-89000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-28000</v>
       </c>
       <c r="V91" s="3">
         <v>-28000</v>
       </c>
       <c r="W91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="X91" s="3">
         <v>33000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-99000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-57000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-942000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-53000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-52000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>643000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,31 +6952,32 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-40000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-14000</v>
       </c>
       <c r="I96" s="3">
         <v>-14000</v>
       </c>
       <c r="J96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="K96" s="3">
         <v>-10000</v>
@@ -6755,10 +6989,10 @@
         <v>-10000</v>
       </c>
       <c r="N96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7000</v>
       </c>
       <c r="P96" s="3">
         <v>-7000</v>
@@ -6767,13 +7001,13 @@
         <v>-7000</v>
       </c>
       <c r="R96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-6000</v>
       </c>
       <c r="U96" s="3">
         <v>-6000</v>
@@ -6782,10 +7016,10 @@
         <v>-6000</v>
       </c>
       <c r="W96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-6000</v>
       </c>
       <c r="Y96" s="3">
         <v>-6000</v>
@@ -6794,10 +7028,13 @@
         <v>-6000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-114000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-125000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-179000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-621000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-226000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>273000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>193000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-121000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-467000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>50000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>51000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1000</v>
       </c>
       <c r="L101" s="3">
         <v>1000</v>
       </c>
       <c r="M101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-182000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-81000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-460000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>119000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-101000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>320000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>118000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-90000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-40000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-37000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>58000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>755000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>38000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>17000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>46000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E8" s="3">
         <v>895000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>945000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>965000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>884000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>870000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>927000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>891000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>783000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>675000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>578000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>722000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>693000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>768000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>791000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>390000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>429000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>456000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>492000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>442000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>464000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>435000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>421000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>378000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>352000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E9" s="3">
         <v>662000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>681000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>733000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>666000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>636000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>687000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>605000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>536000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>449000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>547000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>545000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>614000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>672000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>307000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>311000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>335000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>348000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>327000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>339000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>329000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>326000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>315000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>298000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E10" s="3">
         <v>233000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>264000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>232000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>218000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>234000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>227000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>204000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>178000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>139000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>175000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>148000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>154000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>119000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>83000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>118000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>121000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>144000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>115000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>125000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>106000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>95000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>63000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>54000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,99 +1222,105 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>53000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>7000</v>
       </c>
       <c r="M14" s="3">
         <v>7000</v>
       </c>
       <c r="N14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>6000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>30000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>28000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
         <v>7000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9000</v>
       </c>
       <c r="G15" s="3">
         <v>9000</v>
@@ -1313,28 +1335,28 @@
         <v>9000</v>
       </c>
       <c r="K15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7000</v>
       </c>
       <c r="S15" s="3">
         <v>7000</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E17" s="3">
         <v>732000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>775000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>897000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>755000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>705000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>818000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>691000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>626000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>529000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>643000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>650000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>720000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>804000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>376000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>361000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>403000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>457000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>428000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>404000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>412000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>389000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>381000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>351000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E18" s="3">
         <v>163000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>170000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>129000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>165000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>127000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>49000</v>
       </c>
       <c r="M18" s="3">
         <v>49000</v>
       </c>
       <c r="N18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="O18" s="3">
         <v>79000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>23000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>32000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1000</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>-22000</v>
       </c>
       <c r="E20" s="3">
         <v>10000</v>
       </c>
       <c r="F20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>9000</v>
       </c>
       <c r="K20" s="3">
         <v>9000</v>
       </c>
       <c r="L20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3000</v>
       </c>
       <c r="P20" s="3">
         <v>3000</v>
       </c>
       <c r="Q20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>10000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>86000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>38000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E21" s="3">
         <v>239000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>247000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>134000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>208000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>250000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>204000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>166000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>186000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>133000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>163000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>121000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>79000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>68000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>134000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>116000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>120000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>61000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>92000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>78000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>164000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>80000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>39000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>49000</v>
       </c>
       <c r="S22" s="3">
         <v>49000</v>
       </c>
       <c r="T22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="U22" s="3">
         <v>47000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>48000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>49000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>48000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>45000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>135000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>91000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>44000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>141000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>152000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>104000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>141000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-59000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-36000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-51000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-223000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-893000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-27000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1162000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-150000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E26" s="3">
         <v>123000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>375000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>87000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>113000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>77000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>902000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-55000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-30000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>50000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-41000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-53000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>99000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>121000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>375000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>111000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>73000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>896000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32000</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-61000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-34000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>36000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-44000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>97000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,62 +2360,65 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2366,25 +2426,28 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>1166000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-216000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>22000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>15000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>24000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>22000</v>
       </c>
       <c r="E32" s="3">
         <v>-10000</v>
       </c>
       <c r="F32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-9000</v>
       </c>
       <c r="K32" s="3">
         <v>-9000</v>
       </c>
       <c r="L32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3000</v>
       </c>
       <c r="P32" s="3">
         <v>-3000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>375000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>111000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>73000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>896000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-62000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-34000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>36000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-44000</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-247000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>121000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>375000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>111000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>73000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>896000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-62000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-34000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>36000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-44000</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-247000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>121000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E41" s="3">
         <v>91000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>292000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>228000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>309000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>303000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>759000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>619000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>722000</v>
       </c>
       <c r="M41" s="3">
         <v>722000</v>
       </c>
       <c r="N41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="O41" s="3">
         <v>420000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>302000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>305000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>397000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1068000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1034000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1077000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1036000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1074000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1116000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1058000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>303000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>265000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>248000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,328 +3257,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E43" s="3">
         <v>599000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>641000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>656000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>637000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>631000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>687000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>658000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>544000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>487000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>449000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>560000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>488000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>576000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>603000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>302000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>319000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>334000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>349000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>338000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>673000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>310000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>457000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>428000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>289000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1132000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1106000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1050000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1048000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1011000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1020000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1052000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1137000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1176000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1174000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1054000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1131000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1035000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1097000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>486000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>479000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>475000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>451000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>470000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>473000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>459000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>506000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>510000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>499000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>145000</v>
+        <v>135000</v>
       </c>
       <c r="E45" s="3">
         <v>145000</v>
       </c>
       <c r="F45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="G45" s="3">
         <v>191000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>151000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>175000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>171000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>229000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>201000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>162000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>124000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>137000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>165000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>715000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>712000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>718000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>769000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>741000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>713000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>697000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>56000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>42000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1702000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1967000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2004000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2189000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2049000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2102000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2185000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2640000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2529000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2586000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2507000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2158000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2073000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2053000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2262000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2571000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2544000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2604000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2605000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2623000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2639000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2524000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1322000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1245000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2738000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,168 +3672,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2667000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2524000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2555000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2619000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2542000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2550000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2596000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2583000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2643000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2513000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2506000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2505000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2715000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2621000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2562000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1841000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1800000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1823000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1861000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2016000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2885000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1928000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3424000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1969000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E49" s="3">
         <v>251000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>242000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>229000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>217000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>214000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>206000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>201000</v>
       </c>
       <c r="K49" s="3">
         <v>201000</v>
       </c>
       <c r="L49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="M49" s="3">
         <v>203000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>195000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>202000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>208000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>222000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>299000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>169000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>176000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>182000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>188000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>192000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>198000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>203000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>210000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>217000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>223000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1417000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1419000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1178000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1179000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1177000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1195000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1199000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1195000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1174000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>274000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>265000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>272000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>261000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>293000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>145000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>122000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>105000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>79000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>27000</v>
       </c>
       <c r="W52" s="3">
         <v>27000</v>
       </c>
       <c r="X52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>36000</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>38000</v>
       </c>
       <c r="Z52" s="3">
         <v>38000</v>
       </c>
       <c r="AA52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AB52" s="3">
         <v>34000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6306000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6159000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6220000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6215000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5987000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6043000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6182000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6623000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6568000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6476000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5482000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5130000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5268000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5157000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5416000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4726000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4642000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4714000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4733000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4858000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4864000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4691000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4994000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4922000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4964000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,138 +4317,142 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E57" s="3">
         <v>426000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>508000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>490000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>438000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>394000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>375000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>378000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>356000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>306000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>322000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>280000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>342000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>246000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>297000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>150000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>133000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>155000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>131000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>146000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>165000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>155000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>201000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>198000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>136000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E58" s="3">
         <v>106000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>34000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>514000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>59000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>242000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>58000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>152000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>22000</v>
       </c>
       <c r="T58" s="3">
         <v>22000</v>
@@ -4334,10 +4467,10 @@
         <v>22000</v>
       </c>
       <c r="X58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>11000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>166000</v>
       </c>
       <c r="Z58" s="3">
         <v>166000</v>
@@ -4348,328 +4481,343 @@
       <c r="AB58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E59" s="3">
         <v>306000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>288000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>417000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>366000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>378000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>384000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>362000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>391000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>404000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>346000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>389000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>322000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>328000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>363000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>140000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>145000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>169000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>182000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>152000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>166000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>133000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>183000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>146000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>262000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E60" s="3">
         <v>838000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>885000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>923000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>822000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>779000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>793000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1254000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>805000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>764000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>727000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>911000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>702000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>629000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>718000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>442000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>346000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>335000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>320000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>353000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>299000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>550000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>510000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>564000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2464000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2463000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2449000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2567000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2558000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2675000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2804000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2901000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3263000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3424000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3427000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2954000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2988000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3067000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3136000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3223000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3139000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3143000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3147000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3124000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3125000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3129000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2886000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2887000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2888000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E62" s="3">
         <v>536000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>560000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>596000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>565000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>590000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>609000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>611000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>629000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600000</v>
       </c>
       <c r="M62" s="3">
         <v>600000</v>
       </c>
       <c r="N62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="O62" s="3">
         <v>586000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>662000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>637000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>633000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>381000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>341000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>346000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>354000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>381000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>371000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>357000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>383000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>381000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>359000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3949000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3888000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3945000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4142000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3993000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4093000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4260000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4811000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4870000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4925000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4880000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4577000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4520000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4490000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4637000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4150000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3959000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4007000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4008000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4029000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4035000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3943000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3981000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3931000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3955000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1116000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1014000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>659000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>663000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>596000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>501000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>440000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>434000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-485000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-471000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-493000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-486000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-466000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-397000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-357000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-346000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-347000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-377000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-327000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-321000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-66000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2357000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2271000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2275000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2073000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1994000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1950000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1922000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1812000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1698000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1551000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>602000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>553000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>748000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>667000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>779000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>576000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>683000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>707000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>725000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>829000</v>
       </c>
       <c r="W76" s="3">
         <v>829000</v>
       </c>
       <c r="X76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="Y76" s="3">
         <v>748000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1013000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>991000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1009000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>375000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>111000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>73000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>896000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-62000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-34000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>36000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-44000</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-247000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>121000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E83" s="3">
         <v>66000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>76000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>72000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>74000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>49000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>46000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>62000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>61000</v>
       </c>
       <c r="AA83" s="3">
         <v>61000</v>
       </c>
       <c r="AB83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E89" s="3">
         <v>137000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>189000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>139000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>256000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>210000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>135000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>199000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-28000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>175000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>148000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>112000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>72000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>64000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>77000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>60000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>87000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-112000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-103000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-89000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-28000</v>
       </c>
       <c r="W91" s="3">
         <v>-28000</v>
       </c>
       <c r="X91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>33000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-59000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-110000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-99000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-102000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-57000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-65000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-942000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-53000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-52000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-28000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>643000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-31000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,34 +7185,35 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-40000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-14000</v>
       </c>
       <c r="J96" s="3">
         <v>-14000</v>
       </c>
       <c r="K96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="L96" s="3">
         <v>-10000</v>
@@ -6992,10 +7225,10 @@
         <v>-10000</v>
       </c>
       <c r="O96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-7000</v>
       </c>
       <c r="Q96" s="3">
         <v>-7000</v>
@@ -7004,13 +7237,13 @@
         <v>-7000</v>
       </c>
       <c r="S96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-6000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-6000</v>
       </c>
       <c r="V96" s="3">
         <v>-6000</v>
@@ -7019,10 +7252,10 @@
         <v>-6000</v>
       </c>
       <c r="X96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-6000</v>
       </c>
       <c r="Z96" s="3">
         <v>-6000</v>
@@ -7031,10 +7264,13 @@
         <v>-6000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-41000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-114000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-29000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-125000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-179000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-621000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-226000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>273000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>193000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-121000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-467000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>50000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>51000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1000</v>
       </c>
       <c r="M101" s="3">
         <v>1000</v>
       </c>
       <c r="N101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-182000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-81000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-460000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>119000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-101000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>320000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>118000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-40000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>44000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-37000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>58000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>755000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>38000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>17000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>46000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E8" s="3">
         <v>649000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>895000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>945000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>965000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>884000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>870000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>927000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>891000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>783000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>675000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>578000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>722000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>693000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>768000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>791000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>390000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>429000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>456000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>492000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>442000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>464000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>435000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>421000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>378000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>352000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E9" s="3">
         <v>544000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>662000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>681000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>733000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>666000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>636000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>687000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>605000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>536000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>449000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>547000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>545000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>614000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>672000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>307000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>311000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>335000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>348000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>327000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>339000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>329000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>326000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>315000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>298000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E10" s="3">
         <v>105000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>233000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>264000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>232000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>218000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>234000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>227000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>204000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>139000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>129000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>175000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>148000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>154000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>119000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>83000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>118000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>121000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>144000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>115000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>125000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>106000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>95000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>63000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>54000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,82 +1254,85 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>53000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>7000</v>
       </c>
       <c r="N14" s="3">
         <v>7000</v>
       </c>
       <c r="O14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>6000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>30000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>28000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,13 +1340,13 @@
         <v>8000</v>
       </c>
       <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
         <v>7000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9000</v>
       </c>
       <c r="H15" s="3">
         <v>9000</v>
@@ -1338,28 +1361,28 @@
         <v>9000</v>
       </c>
       <c r="L15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>7000</v>
       </c>
       <c r="T15" s="3">
         <v>7000</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E17" s="3">
         <v>613000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>732000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>775000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>897000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>755000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>705000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>818000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>691000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>626000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>529000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>643000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>650000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>720000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>804000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>376000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>361000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>403000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>457000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>428000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>404000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>412000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>389000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>381000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>351000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E18" s="3">
         <v>36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>163000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>170000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>129000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>165000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>127000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>49000</v>
       </c>
       <c r="N18" s="3">
         <v>49000</v>
       </c>
       <c r="O18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="P18" s="3">
         <v>79000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>23000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>32000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1000</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>10000</v>
       </c>
       <c r="F20" s="3">
         <v>10000</v>
       </c>
       <c r="G20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>9000</v>
       </c>
       <c r="L20" s="3">
         <v>9000</v>
       </c>
       <c r="M20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3000</v>
       </c>
       <c r="Q20" s="3">
         <v>3000</v>
       </c>
       <c r="R20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>10000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>86000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>38000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E21" s="3">
         <v>82000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>239000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>247000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>134000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>208000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>250000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>204000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>186000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>163000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>121000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>125000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>79000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>68000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>134000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>116000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>120000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>61000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>92000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>78000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>164000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>80000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>39000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,248 +1831,257 @@
         <v>33000</v>
       </c>
       <c r="E22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F22" s="3">
         <v>32000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>49000</v>
       </c>
       <c r="T22" s="3">
         <v>49000</v>
       </c>
       <c r="U22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V22" s="3">
         <v>47000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>48000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>49000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>48000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>45000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>135000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>91000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>44000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>152000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>104000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>141000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-59000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>23000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-36000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-51000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-223000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-893000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-27000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1162000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13000</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-150000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>123000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>375000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>87000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>113000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>902000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-55000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-30000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>50000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-41000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-53000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>99000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>121000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>375000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>73000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>896000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32000</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-61000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-34000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>36000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-44000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>97000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2389,39 +2450,39 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>6000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2429,25 +2490,28 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1166000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-216000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>22000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>15000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>24000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>22000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-10000</v>
       </c>
       <c r="F32" s="3">
         <v>-10000</v>
       </c>
       <c r="G32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-9000</v>
       </c>
       <c r="L32" s="3">
         <v>-9000</v>
       </c>
       <c r="M32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q32" s="3">
         <v>-3000</v>
       </c>
       <c r="R32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-86000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>8000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>121000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>375000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>111000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>73000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>896000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32000</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-62000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-34000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>36000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-44000</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-247000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>121000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>121000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>375000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>111000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>73000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>896000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32000</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-62000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-34000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>36000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-44000</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-247000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>121000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E41" s="3">
         <v>164000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>292000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>228000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>309000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>303000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>759000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>619000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>722000</v>
       </c>
       <c r="N41" s="3">
         <v>722000</v>
       </c>
       <c r="O41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="P41" s="3">
         <v>420000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>302000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>305000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>397000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1068000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1034000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1077000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1036000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1074000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1116000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1058000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>303000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>265000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>248000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E43" s="3">
         <v>383000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>599000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>641000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>656000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>637000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>631000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>687000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>658000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>544000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>487000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>449000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>560000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>488000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>576000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>603000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>302000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>319000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>334000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>349000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>338000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>673000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>310000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>457000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>428000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>289000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1359000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1278000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1132000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1106000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1050000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1048000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1011000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1020000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1052000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1137000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1176000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1174000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1054000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1131000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1035000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1097000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>486000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>479000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>475000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>451000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>470000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>473000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>459000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>506000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>510000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>499000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E45" s="3">
         <v>135000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>145000</v>
       </c>
       <c r="F45" s="3">
         <v>145000</v>
       </c>
       <c r="G45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="H45" s="3">
         <v>191000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>136000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>151000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>175000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>229000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>201000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>162000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>124000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>137000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>165000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>715000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>712000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>718000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>769000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>741000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>713000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>697000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>56000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>42000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1702000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1960000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1967000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2004000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2189000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2049000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2102000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2185000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2640000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2529000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2586000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2507000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2158000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2073000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2053000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2262000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2571000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2544000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2604000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2605000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2623000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2639000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2524000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1322000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1245000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2738000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,174 +3780,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2641000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2667000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2524000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2555000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2619000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2542000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2550000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2596000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2583000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2643000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2513000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2506000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2505000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2715000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2621000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2562000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1841000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1800000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1823000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1861000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2016000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2885000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1928000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3424000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1969000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E49" s="3">
         <v>250000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>251000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>242000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>229000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>217000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>214000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>206000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>201000</v>
       </c>
       <c r="L49" s="3">
         <v>201000</v>
       </c>
       <c r="M49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="N49" s="3">
         <v>203000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>195000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>202000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>208000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>222000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>299000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>169000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>176000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>182000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>188000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>192000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>198000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>203000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>210000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>217000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>223000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1429000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1417000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1419000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1178000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1179000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1177000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1195000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1199000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1174000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>274000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>265000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>272000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>261000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>293000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>145000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>122000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>105000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>79000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>27000</v>
       </c>
       <c r="X52" s="3">
         <v>27000</v>
       </c>
       <c r="Y52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>36000</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>38000</v>
       </c>
       <c r="AA52" s="3">
         <v>38000</v>
       </c>
       <c r="AB52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AC52" s="3">
         <v>34000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6359000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6306000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6159000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6220000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6215000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5987000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6043000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6182000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6623000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6568000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6476000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5482000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5130000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5268000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5157000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5416000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4726000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4642000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4714000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4733000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4858000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4864000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4691000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4994000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4922000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4964000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,144 +4448,148 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E57" s="3">
         <v>486000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>426000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>508000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>490000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>438000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>394000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>375000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>378000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>356000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>306000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>322000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>280000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>342000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>246000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>297000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>150000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>133000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>155000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>131000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>146000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>165000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>155000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>201000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>198000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>136000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E58" s="3">
         <v>74000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>106000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>89000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>34000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>514000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>59000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>242000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>55000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>58000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>152000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>22000</v>
       </c>
       <c r="U58" s="3">
         <v>22000</v>
@@ -4470,10 +4604,10 @@
         <v>22000</v>
       </c>
       <c r="Y58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>11000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>166000</v>
       </c>
       <c r="AA58" s="3">
         <v>166000</v>
@@ -4484,340 +4618,355 @@
       <c r="AC58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E59" s="3">
         <v>290000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>306000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>288000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>417000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>366000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>378000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>384000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>362000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>391000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>404000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>346000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>389000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>322000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>328000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>363000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>140000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>145000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>169000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>182000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>152000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>166000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>133000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>183000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>146000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>262000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>915000</v>
+      </c>
+      <c r="E60" s="3">
         <v>850000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>838000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>885000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>923000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>822000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>779000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>793000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1254000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>805000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>764000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>727000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>911000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>702000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>629000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>718000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>442000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>346000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>335000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>320000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>353000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>299000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>550000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>510000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>564000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2458000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2464000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2463000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2449000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2567000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2558000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2675000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2804000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2901000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3263000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3424000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3427000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2954000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2988000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3067000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3136000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3223000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3139000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3143000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3147000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3124000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3125000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3129000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2886000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2887000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2888000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E62" s="3">
         <v>589000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>536000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>560000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>596000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>565000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>590000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>609000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>611000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>629000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600000</v>
       </c>
       <c r="N62" s="3">
         <v>600000</v>
       </c>
       <c r="O62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="P62" s="3">
         <v>586000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>662000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>637000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>633000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>381000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>341000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>346000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>354000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>381000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>371000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>357000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>383000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>381000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>359000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4010000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3949000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3888000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3945000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4142000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3993000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4093000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4260000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4811000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4870000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4925000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4880000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4577000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4520000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4490000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4637000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4150000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3959000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4007000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4008000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4029000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4035000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3943000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3981000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3931000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3955000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1080000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1116000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1014000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>659000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>663000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>596000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>501000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>440000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>434000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>400000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-485000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-471000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-493000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-486000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-466000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-397000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-357000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-346000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-347000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-377000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-327000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-321000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-66000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-32000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2349000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2357000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2271000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2275000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2073000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1994000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1950000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1922000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1812000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1698000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1551000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>602000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>553000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>748000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>667000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>779000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>576000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>683000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>707000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>725000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>829000</v>
       </c>
       <c r="X76" s="3">
         <v>829000</v>
       </c>
       <c r="Y76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="Z76" s="3">
         <v>748000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1013000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>991000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1009000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>121000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>375000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>111000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>73000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>896000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32000</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-62000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-34000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>36000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-44000</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-247000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>121000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E83" s="3">
         <v>68000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>70000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>76000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>72000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>74000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>49000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>46000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>62000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>61000</v>
       </c>
       <c r="AB83" s="3">
         <v>61000</v>
       </c>
       <c r="AC83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E89" s="3">
         <v>240000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>137000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>189000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>139000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>256000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>210000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>199000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-28000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>175000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>148000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>112000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>72000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>64000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>77000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>60000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>87000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-114000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-112000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-103000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-89000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-28000</v>
       </c>
       <c r="X91" s="3">
         <v>-28000</v>
       </c>
       <c r="Y91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="Z91" s="3">
         <v>33000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-44000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-52000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-59000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-104000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-110000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-99000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-102000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-129000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-942000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-53000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-28000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>643000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-31000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,37 +7419,38 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-40000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-14000</v>
       </c>
       <c r="K96" s="3">
         <v>-14000</v>
       </c>
       <c r="L96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="M96" s="3">
         <v>-10000</v>
@@ -7228,10 +7462,10 @@
         <v>-10000</v>
       </c>
       <c r="P96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-7000</v>
       </c>
       <c r="R96" s="3">
         <v>-7000</v>
@@ -7240,13 +7474,13 @@
         <v>-7000</v>
       </c>
       <c r="T96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-6000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-6000</v>
       </c>
       <c r="W96" s="3">
         <v>-6000</v>
@@ -7255,10 +7489,10 @@
         <v>-6000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-6000</v>
       </c>
       <c r="AA96" s="3">
         <v>-6000</v>
@@ -7267,10 +7501,13 @@
         <v>-6000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-66000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-41000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-114000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-125000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-179000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-621000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-226000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>273000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>193000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-467000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>50000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>51000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1000</v>
       </c>
       <c r="N101" s="3">
         <v>1000</v>
       </c>
       <c r="O101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-22000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E102" s="3">
         <v>73000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-182000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>64000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-81000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-460000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>119000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-101000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>320000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>118000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-90000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>38000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>44000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-37000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-40000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>58000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>755000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>38000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>17000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>46000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>794000</v>
+      </c>
+      <c r="E8" s="3">
         <v>708000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>649000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>895000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>945000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>965000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>884000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>870000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>927000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>891000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>783000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>675000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>578000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>722000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>693000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>768000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>791000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>390000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>429000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>456000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>492000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>442000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>464000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>435000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>421000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>378000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>352000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E9" s="3">
         <v>574000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>544000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>662000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>681000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>733000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>666000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>636000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>687000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>605000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>536000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>449000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>547000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>545000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>614000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>672000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>307000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>311000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>335000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>348000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>327000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>339000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>329000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>326000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>315000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>298000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E10" s="3">
         <v>134000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>105000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>233000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>264000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>232000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>218000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>234000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>227000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>139000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>129000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>175000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>148000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>154000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>119000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>83000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>118000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>121000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>144000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>115000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>125000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>106000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>95000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>63000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>54000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,82 +1277,85 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>7000</v>
       </c>
       <c r="O14" s="3">
         <v>7000</v>
       </c>
       <c r="P14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>6000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>30000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>28000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,13 +1366,13 @@
         <v>8000</v>
       </c>
       <c r="F15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G15" s="3">
         <v>7000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>9000</v>
       </c>
       <c r="I15" s="3">
         <v>9000</v>
@@ -1364,28 +1387,28 @@
         <v>9000</v>
       </c>
       <c r="M15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>7000</v>
       </c>
       <c r="U15" s="3">
         <v>7000</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E17" s="3">
         <v>646000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>613000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>732000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>775000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>897000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>755000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>705000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>818000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>691000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>626000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>529000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>643000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>650000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>720000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>804000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>376000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>361000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>403000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>457000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>428000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>404000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>412000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>389000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>381000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>351000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E18" s="3">
         <v>62000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>163000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>170000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>129000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>165000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>49000</v>
       </c>
       <c r="O18" s="3">
         <v>49000</v>
       </c>
       <c r="P18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>79000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>48000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>60000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>23000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>32000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1000</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-22000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10000</v>
       </c>
       <c r="G20" s="3">
         <v>10000</v>
       </c>
       <c r="H20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>9000</v>
       </c>
       <c r="M20" s="3">
         <v>9000</v>
       </c>
       <c r="N20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3000</v>
       </c>
       <c r="R20" s="3">
         <v>3000</v>
       </c>
       <c r="S20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>10000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>86000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>38000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E21" s="3">
         <v>138000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>82000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>239000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>247000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>134000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>208000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>250000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>204000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>166000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>186000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>163000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>121000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>125000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>79000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>68000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>134000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>116000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>120000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>61000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>92000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>78000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>164000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>80000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>39000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33000</v>
+        <v>38000</v>
       </c>
       <c r="E22" s="3">
         <v>33000</v>
       </c>
       <c r="F22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G22" s="3">
         <v>32000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>51000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>54000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>49000</v>
       </c>
       <c r="U22" s="3">
         <v>49000</v>
       </c>
       <c r="V22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="W22" s="3">
         <v>47000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>48000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>49000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>48000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>45000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>135000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>91000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>44000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E23" s="3">
         <v>34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>141000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>152000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>104000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>141000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-59000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>35000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>21000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-56000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-51000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-223000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-893000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-27000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1162000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13000</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-150000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E26" s="3">
         <v>25000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>123000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>375000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>87000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>113000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>902000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-55000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-30000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>50000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-53000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>99000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E27" s="3">
         <v>23000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>121000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>375000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>111000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>896000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32000</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-61000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-34000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-56000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>97000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2453,39 +2514,39 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>6000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2493,25 +2554,28 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1166000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-216000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>22000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>15000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>24000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>22000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-10000</v>
       </c>
       <c r="G32" s="3">
         <v>-10000</v>
       </c>
       <c r="H32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-9000</v>
       </c>
       <c r="M32" s="3">
         <v>-9000</v>
       </c>
       <c r="N32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3000</v>
       </c>
       <c r="R32" s="3">
         <v>-3000</v>
       </c>
       <c r="S32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-86000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>8000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E33" s="3">
         <v>23000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>375000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>111000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>73000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>896000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32000</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-13000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-62000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-34000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-247000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-41000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>121000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E35" s="3">
         <v>23000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>375000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>111000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>73000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>896000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32000</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-13000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-62000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-34000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-247000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-41000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>121000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E41" s="3">
         <v>115000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>164000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>292000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>228000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>309000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>303000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>759000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>619000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>722000</v>
       </c>
       <c r="O41" s="3">
         <v>722000</v>
       </c>
       <c r="P41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>420000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>302000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>305000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>397000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1068000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1034000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1077000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1036000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1074000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1116000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1058000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>303000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>265000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>248000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E43" s="3">
         <v>416000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>383000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>599000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>641000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>656000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>637000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>631000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>687000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>658000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>544000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>487000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>449000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>560000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>488000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>576000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>603000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>302000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>319000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>334000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>349000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>338000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>673000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>310000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>457000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>428000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>289000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1359000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1278000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1132000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1106000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1050000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1048000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1011000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1020000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1052000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1137000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1176000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1174000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1131000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1035000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1097000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>486000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>479000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>475000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>451000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>470000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>473000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>459000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>506000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>510000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>499000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E45" s="3">
         <v>134000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>135000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>145000</v>
       </c>
       <c r="G45" s="3">
         <v>145000</v>
       </c>
       <c r="H45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I45" s="3">
         <v>191000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>136000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>151000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>175000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>229000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>201000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>162000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>124000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>137000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>165000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>715000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>712000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>718000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>769000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>741000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>713000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>697000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>56000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>42000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1702000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2084000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2024000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1960000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1967000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2004000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2189000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2049000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2102000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2185000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2640000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2529000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2586000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2507000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2158000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2073000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2053000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2262000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2571000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2544000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2604000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2605000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2623000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2639000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2524000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1322000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1245000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2738000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2588000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2641000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2667000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2524000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2555000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2619000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2542000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2550000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2596000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2583000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2643000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2513000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2506000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2505000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2715000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2621000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2562000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1841000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1800000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1823000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1861000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2016000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2885000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1928000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3424000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1969000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E49" s="3">
         <v>249000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>250000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>251000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>229000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>217000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>214000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>206000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>201000</v>
       </c>
       <c r="M49" s="3">
         <v>201000</v>
       </c>
       <c r="N49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="O49" s="3">
         <v>203000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>195000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>202000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>208000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>222000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>299000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>169000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>176000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>182000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>188000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>192000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>198000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>203000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>210000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>217000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>223000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1445000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1429000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1417000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1419000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1178000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1179000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1177000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1195000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1199000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1195000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1174000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>274000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>265000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>272000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>261000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>293000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>145000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>122000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>105000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>79000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>27000</v>
       </c>
       <c r="Y52" s="3">
         <v>27000</v>
       </c>
       <c r="Z52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>36000</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>38000</v>
       </c>
       <c r="AB52" s="3">
         <v>38000</v>
       </c>
       <c r="AC52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AD52" s="3">
         <v>34000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6055000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6359000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6306000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6159000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6220000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6215000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5987000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6043000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6182000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6623000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6568000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6476000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5482000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5130000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5268000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5157000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5416000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4726000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4642000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4714000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4733000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4858000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4864000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4691000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4994000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4922000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4964000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,150 +4579,154 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E57" s="3">
         <v>410000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>486000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>426000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>508000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>490000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>438000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>394000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>375000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>378000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>356000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>306000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>322000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>280000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>342000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>246000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>297000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>150000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>133000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>155000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>131000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>146000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>165000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>155000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>201000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>198000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>136000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E58" s="3">
         <v>200000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>74000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>106000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>89000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>34000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>514000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>59000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>242000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>55000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>58000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>152000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>22000</v>
       </c>
       <c r="V58" s="3">
         <v>22000</v>
@@ -4607,10 +4741,10 @@
         <v>22000</v>
       </c>
       <c r="Z58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>11000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>166000</v>
       </c>
       <c r="AB58" s="3">
         <v>166000</v>
@@ -4621,352 +4755,367 @@
       <c r="AD58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E59" s="3">
         <v>305000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>290000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>306000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>288000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>417000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>366000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>378000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>384000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>391000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>404000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>346000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>389000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>322000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>328000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>363000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>140000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>145000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>169000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>182000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>152000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>166000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>133000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>183000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>146000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>262000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E60" s="3">
         <v>915000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>850000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>838000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>885000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>923000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>822000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>779000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>793000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1254000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>805000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>764000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>727000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>911000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>702000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>629000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>718000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>442000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>346000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>335000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>320000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>353000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>299000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>550000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>510000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>564000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2450000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2458000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2464000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2463000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2449000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2567000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2558000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2675000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2804000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2901000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3263000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3424000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3427000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2954000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2988000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3067000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3136000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3223000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3139000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3143000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3147000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3124000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3125000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3129000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2886000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2887000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2888000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>579000</v>
+      </c>
+      <c r="E62" s="3">
         <v>587000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>589000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>536000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>560000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>596000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>565000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>590000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>609000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>611000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>629000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600000</v>
       </c>
       <c r="O62" s="3">
         <v>600000</v>
       </c>
       <c r="P62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>586000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>662000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>637000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>633000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>381000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>341000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>346000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>354000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>381000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>371000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>357000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>383000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>381000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>359000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4014000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4010000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3949000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3888000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3945000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4142000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3993000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4093000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4260000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4811000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4870000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4925000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4880000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4577000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4520000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4490000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4637000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4150000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3959000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4007000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4008000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4029000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4035000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3943000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3981000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3931000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3955000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>794000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1083000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1080000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1116000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1014000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>659000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>663000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>596000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>501000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>440000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>434000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>400000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-485000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-471000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-493000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-486000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-466000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-397000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-357000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-346000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-347000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-377000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-327000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-321000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-66000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-32000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2041000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2349000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2357000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2271000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2275000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2073000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1994000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1950000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1922000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1812000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1698000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1551000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>602000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>553000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>748000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>667000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>779000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>576000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>683000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>707000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>725000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>829000</v>
       </c>
       <c r="Y76" s="3">
         <v>829000</v>
       </c>
       <c r="Z76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="AA76" s="3">
         <v>748000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1013000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>991000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1009000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E81" s="3">
         <v>23000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>375000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>111000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>73000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>896000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32000</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-13000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-62000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-34000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-247000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-41000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>121000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E83" s="3">
         <v>71000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>66000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>70000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>76000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>72000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>74000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>84000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>47000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>49000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>46000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>62000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>61000</v>
       </c>
       <c r="AC83" s="3">
         <v>61000</v>
       </c>
       <c r="AD83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-79000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>240000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>137000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>189000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>139000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>256000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>210000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>199000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>175000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>148000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>79000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>112000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>35000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>72000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>64000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>77000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>60000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>87000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-93000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-114000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-112000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-103000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-89000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-28000</v>
       </c>
       <c r="Y91" s="3">
         <v>-28000</v>
       </c>
       <c r="Z91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="AA91" s="3">
         <v>33000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-44000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-52000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-59000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-91000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-110000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-99000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-102000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-88000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-65000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-65000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-129000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-942000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-53000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-52000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>643000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-31000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,40 +7653,41 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-40000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-19000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-14000</v>
       </c>
       <c r="L96" s="3">
         <v>-14000</v>
       </c>
       <c r="M96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="N96" s="3">
         <v>-10000</v>
@@ -7465,10 +7699,10 @@
         <v>-10000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-7000</v>
       </c>
       <c r="S96" s="3">
         <v>-7000</v>
@@ -7477,13 +7711,13 @@
         <v>-7000</v>
       </c>
       <c r="U96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-6000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-6000</v>
       </c>
       <c r="X96" s="3">
         <v>-6000</v>
@@ -7492,10 +7726,10 @@
         <v>-6000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-6000</v>
       </c>
       <c r="AB96" s="3">
         <v>-6000</v>
@@ -7504,10 +7738,13 @@
         <v>-6000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E100" s="3">
         <v>120000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-66000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-41000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-114000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-125000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-179000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-621000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>48000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-226000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-26000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>273000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>193000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-121000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-467000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>50000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-12000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>51000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1000</v>
       </c>
       <c r="O101" s="3">
         <v>1000</v>
       </c>
       <c r="P101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-22000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>73000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-182000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>64000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-81000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-460000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>119000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-101000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>320000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>118000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-90000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>38000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>44000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-37000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>58000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>755000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>38000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>17000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>46000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>14000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TROX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TROX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>662000</v>
+      </c>
+      <c r="E8" s="3">
         <v>794000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>708000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>649000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>895000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>945000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>965000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>884000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>870000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>927000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>891000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>783000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>675000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>578000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>722000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>693000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>768000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>791000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>390000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>429000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>456000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>492000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>442000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>464000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>435000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>421000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>378000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>352000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E9" s="3">
         <v>636000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>574000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>544000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>662000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>681000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>733000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>666000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>636000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>687000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>605000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>536000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>449000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>547000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>545000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>614000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>672000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>307000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>311000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>335000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>348000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>327000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>339000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>329000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>326000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>315000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>298000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>291000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E10" s="3">
         <v>158000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>134000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>105000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>233000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>264000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>232000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>218000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>234000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>178000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>139000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>129000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>175000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>148000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>154000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>119000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>83000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>118000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>121000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>144000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>115000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>125000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>106000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>95000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>63000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>54000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1280,87 +1300,90 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>7000</v>
       </c>
       <c r="P14" s="3">
         <v>7000</v>
       </c>
       <c r="Q14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>6000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>30000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>25000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>28000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
         <v>8000</v>
@@ -1369,13 +1392,13 @@
         <v>8000</v>
       </c>
       <c r="G15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H15" s="3">
         <v>7000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>9000</v>
       </c>
       <c r="J15" s="3">
         <v>9000</v>
@@ -1390,28 +1413,28 @@
         <v>9000</v>
       </c>
       <c r="N15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O15" s="3">
         <v>10000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>7000</v>
       </c>
       <c r="V15" s="3">
         <v>7000</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E17" s="3">
         <v>710000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>646000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>613000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>732000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>775000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>897000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>755000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>705000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>818000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>691000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>626000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>529000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>643000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>650000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>720000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>804000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>376000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>361000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>403000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>457000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>428000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>404000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>412000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>389000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>381000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>351000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E18" s="3">
         <v>84000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>163000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>170000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>129000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>165000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>49000</v>
       </c>
       <c r="P18" s="3">
         <v>49000</v>
       </c>
       <c r="Q18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R18" s="3">
         <v>79000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>48000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>35000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>60000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>23000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>32000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1000</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10000</v>
       </c>
       <c r="H20" s="3">
         <v>10000</v>
       </c>
       <c r="I20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>9000</v>
       </c>
       <c r="N20" s="3">
         <v>9000</v>
       </c>
       <c r="O20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>3000</v>
       </c>
       <c r="S20" s="3">
         <v>3000</v>
       </c>
       <c r="T20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U20" s="3">
         <v>8000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>10000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>86000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>38000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E21" s="3">
         <v>159000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>138000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>82000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>239000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>247000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>134000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>208000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>250000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>204000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>166000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>186000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>163000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>121000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>125000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>79000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>68000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>134000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>116000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>120000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>61000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>92000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>78000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>164000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>80000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>39000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>33000</v>
       </c>
       <c r="F22" s="3">
         <v>33000</v>
       </c>
       <c r="G22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="H22" s="3">
         <v>32000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>32000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>51000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>54000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>49000</v>
       </c>
       <c r="V22" s="3">
         <v>49000</v>
       </c>
       <c r="W22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="X22" s="3">
         <v>47000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>48000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>49000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>48000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>45000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>135000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>91000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>44000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>53000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>141000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>152000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>104000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>141000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-59000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>35000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>21000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>23000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-17000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-56000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-51000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>322000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-223000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-893000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>30000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1162000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-150000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-269000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>123000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>375000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>87000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>77000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>902000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-55000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-30000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>50000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1164000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-17000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-53000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>99000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-62000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-269000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>121000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>375000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>73000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>896000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32000</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-61000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-34000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>36000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1166000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-31000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-56000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>97000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-60000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2517,39 +2578,39 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>6000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1000</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2557,25 +2618,28 @@
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>1166000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-216000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>22000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>15000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>24000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-10000</v>
       </c>
       <c r="H32" s="3">
         <v>-10000</v>
       </c>
       <c r="I32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-9000</v>
       </c>
       <c r="N32" s="3">
         <v>-9000</v>
       </c>
       <c r="O32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-3000</v>
       </c>
       <c r="S32" s="3">
         <v>-3000</v>
       </c>
       <c r="T32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-8000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>14000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-86000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>8000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-269000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>375000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>73000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>896000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32000</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-13000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-62000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-34000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>36000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-247000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-41000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>121000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-269000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>375000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>73000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>896000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32000</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-13000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-62000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-34000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>36000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-247000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-41000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>121000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E41" s="3">
         <v>167000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>164000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>292000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>309000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>303000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>759000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>619000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>722000</v>
       </c>
       <c r="P41" s="3">
         <v>722000</v>
       </c>
       <c r="Q41" s="3">
+        <v>722000</v>
+      </c>
+      <c r="R41" s="3">
         <v>420000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>302000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>305000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>397000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1068000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1034000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1077000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1036000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1074000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1116000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1058000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>303000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>265000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>248000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>202000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,364 +3536,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E43" s="3">
         <v>372000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>416000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>383000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>599000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>641000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>656000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>637000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>631000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>687000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>658000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>544000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>487000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>449000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>560000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>488000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>576000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>603000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>302000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>319000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>334000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>349000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>338000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>673000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>310000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>457000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>428000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>289000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>394000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1359000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1278000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1132000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1106000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1050000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1048000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1011000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1020000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1052000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1137000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1176000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1174000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1054000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1131000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1035000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1097000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>486000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>479000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>475000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>451000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>470000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>473000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>459000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>506000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>510000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>499000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>558000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E45" s="3">
         <v>145000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>135000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>145000</v>
       </c>
       <c r="H45" s="3">
         <v>145000</v>
       </c>
       <c r="I45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="J45" s="3">
         <v>191000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>136000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>151000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>175000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>229000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>201000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>162000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>124000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>137000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>165000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>715000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>712000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>718000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>769000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>741000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>713000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>697000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>56000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>42000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1702000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2132000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2084000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2024000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1960000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1967000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2004000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2189000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2049000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2102000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2185000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2640000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2529000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2586000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2507000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2158000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2073000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2053000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2262000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2571000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2544000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2604000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2605000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2623000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2639000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2524000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1322000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1245000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2738000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,186 +3996,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2556000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2588000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2641000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2667000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2524000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2555000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2619000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2542000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2550000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2596000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2583000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2643000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2513000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2506000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2505000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2715000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2621000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2562000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1841000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1800000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1823000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1861000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2016000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2885000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1928000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3424000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3422000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1969000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3467000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E49" s="3">
         <v>246000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>249000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>250000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>251000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>242000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>229000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>217000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>214000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>206000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>201000</v>
       </c>
       <c r="N49" s="3">
         <v>201000</v>
       </c>
       <c r="O49" s="3">
+        <v>201000</v>
+      </c>
+      <c r="P49" s="3">
         <v>203000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>195000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>202000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>208000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>222000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>299000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>169000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>176000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>182000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>188000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>192000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>198000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>203000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>210000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>217000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>223000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1137000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1445000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1429000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1417000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1419000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1178000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1179000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1177000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1199000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1195000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1174000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>274000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>265000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>272000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>261000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>293000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>145000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>122000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>105000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>79000</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>27000</v>
       </c>
       <c r="Z52" s="3">
         <v>27000</v>
       </c>
       <c r="AA52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="AB52" s="3">
         <v>36000</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>38000</v>
       </c>
       <c r="AC52" s="3">
         <v>38000</v>
       </c>
       <c r="AD52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AE52" s="3">
         <v>34000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6040000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6055000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6359000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6306000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6159000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6220000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6215000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5987000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6043000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6182000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6623000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6568000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6476000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5482000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5130000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5268000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5157000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5416000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4726000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4642000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4714000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4733000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4858000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4864000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4691000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4994000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4922000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4964000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4925000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,156 +4710,160 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E57" s="3">
         <v>437000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>410000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>486000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>426000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>508000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>490000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>438000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>394000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>375000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>378000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>356000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>306000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>322000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>280000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>342000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>246000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>297000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>150000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>133000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>155000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>131000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>146000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>165000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>155000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>201000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>198000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>136000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E58" s="3">
         <v>226000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>74000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>106000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>89000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>34000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>514000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>59000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>242000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>55000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>58000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>152000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>22000</v>
       </c>
       <c r="W58" s="3">
         <v>22000</v>
@@ -4744,10 +4878,10 @@
         <v>22000</v>
       </c>
       <c r="AA58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="AB58" s="3">
         <v>11000</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>166000</v>
       </c>
       <c r="AC58" s="3">
         <v>166000</v>
@@ -4758,364 +4892,379 @@
       <c r="AE58" s="3">
         <v>166000</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E59" s="3">
         <v>277000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>305000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>290000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>306000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>288000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>417000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>366000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>378000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>384000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>362000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>391000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>404000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>346000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>389000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>322000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>328000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>363000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>140000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>145000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>169000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>182000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>152000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>166000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>133000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>183000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>146000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>262000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>205000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E60" s="3">
         <v>940000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>915000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>850000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>838000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>885000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>923000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>822000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>779000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>793000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1254000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>805000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>764000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>727000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>911000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>702000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>629000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>718000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>442000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>346000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>335000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>320000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>353000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>299000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>550000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>510000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>564000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2788000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2450000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2458000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2464000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2463000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2449000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2567000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2558000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2675000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2804000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2901000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3263000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3424000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3427000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2954000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2988000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3067000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3136000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3223000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3139000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3143000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3147000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3124000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3125000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3129000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2886000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2887000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2888000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2889000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E62" s="3">
         <v>579000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>587000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>589000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>536000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>560000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>596000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>565000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>590000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>609000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>611000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>629000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>600000</v>
       </c>
       <c r="P62" s="3">
         <v>600000</v>
       </c>
       <c r="Q62" s="3">
+        <v>600000</v>
+      </c>
+      <c r="R62" s="3">
         <v>586000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>662000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>637000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>633000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>381000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>341000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>346000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>354000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>381000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>371000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>357000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>383000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>381000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>359000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>496000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4047000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4014000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4010000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3949000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3888000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3945000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4142000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3993000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4093000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4260000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4811000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4870000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4925000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4880000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4577000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4520000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4490000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4637000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4150000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3959000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4007000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4008000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4029000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4035000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3943000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3981000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3931000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3955000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>4060000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E72" s="3">
         <v>794000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1083000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1080000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1116000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1014000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>659000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>663000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>596000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>501000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>440000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>434000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>400000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-485000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-471000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-493000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-486000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-466000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-397000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-357000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-346000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-347000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-377000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-327000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-321000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-66000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-32000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-129000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2041000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2349000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2357000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2271000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2275000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2073000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1994000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1950000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1922000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1812000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1698000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1551000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>602000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>553000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>748000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>667000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>779000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>576000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>683000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>707000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>725000</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>829000</v>
       </c>
       <c r="Z76" s="3">
         <v>829000</v>
       </c>
       <c r="AA76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="AB76" s="3">
         <v>748000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1013000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>991000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1009000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>865000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-269000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>375000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>73000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>896000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32000</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-13000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-62000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-34000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>36000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-44000</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-247000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-41000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>121000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-37000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E83" s="3">
         <v>68000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>66000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>67000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>85000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>72000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>74000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>84000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>47000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>49000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>46000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>62000</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>61000</v>
       </c>
       <c r="AD83" s="3">
         <v>61000</v>
       </c>
       <c r="AE83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AF83" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>136000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-79000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>240000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>137000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>189000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>256000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>210000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>135000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>199000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>175000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>148000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>39000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>27000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>112000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>35000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>72000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>64000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>77000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>60000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>87000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-93000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-114000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-112000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-103000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-89000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27000</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-28000</v>
       </c>
       <c r="Z91" s="3">
         <v>-28000</v>
       </c>
       <c r="AA91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="AB91" s="3">
         <v>33000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-44000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-52000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-59000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7541,88 +7771,91 @@
         <v>-54000</v>
       </c>
       <c r="E94" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-91000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-104000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-110000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-99000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-102000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-88000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-65000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-129000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-942000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-50000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-53000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-52000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>643000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-32000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-31000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,43 +7887,44 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-48000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-40000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-14000</v>
       </c>
       <c r="M96" s="3">
         <v>-14000</v>
       </c>
       <c r="N96" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="O96" s="3">
         <v>-10000</v>
@@ -7702,10 +7936,10 @@
         <v>-10000</v>
       </c>
       <c r="R96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-6000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-7000</v>
       </c>
       <c r="T96" s="3">
         <v>-7000</v>
@@ -7714,13 +7948,13 @@
         <v>-7000</v>
       </c>
       <c r="V96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-6000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-6000</v>
       </c>
       <c r="Y96" s="3">
         <v>-6000</v>
@@ -7729,10 +7963,10 @@
         <v>-6000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-5000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-6000</v>
       </c>
       <c r="AC96" s="3">
         <v>-6000</v>
@@ -7741,10 +7975,13 @@
         <v>-6000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-28000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>120000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-66000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-41000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-114000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-125000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-179000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-621000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>48000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-226000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-26000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>273000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>193000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-121000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-467000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>50000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-12000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>51000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-12000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1000</v>
       </c>
       <c r="P101" s="3">
         <v>1000</v>
       </c>
       <c r="Q101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E102" s="3">
         <v>52000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>73000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-182000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>64000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-81000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-460000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>119000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-101000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>320000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>118000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-90000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1328000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>38000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>44000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-37000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>58000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>755000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>38000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>17000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>46000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>14000</v>
       </c>
     </row>
